--- a/SWS.xlsx
+++ b/SWS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Andromede-app-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ED30A1-AC54-442C-BC5A-6DC9891A396E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAFA2FB-5A9A-481F-9480-1449AD38BC8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="66">
   <si>
     <t>Code IDH</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>SEBAIHI SIDALI</t>
+  </si>
+  <si>
+    <t>2940803</t>
+  </si>
+  <si>
+    <t>LE CHAT ROSE 1L</t>
+  </si>
+  <si>
+    <t>LE CHAT power gel 4L</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1106,12 +1115,474 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="411">
+  <dxfs count="468">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4679,10 +5150,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4799,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -5483,65 +5954,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="15">
+        <f>+'1'!E44+'2'!E44+'3'!E44+'4'!E44+'5'!E44+'6'!E44+'7'!E44+'8'!E44+'9'!E44+'10'!E44+'11'!E44+'12'!E44+'13'!E44+'14'!E44+'15'!E44+'16'!E44+'17'!E44+'18'!E44+'19'!E44</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="15">
+        <f>+'1'!E45+'2'!E45+'3'!E45+'4'!E45+'5'!E45+'6'!E45+'7'!E45+'8'!E45+'9'!E45+'10'!E45+'11'!E45+'12'!E45+'13'!E45+'14'!E45+'15'!E45+'16'!E45+'17'!E45+'18'!E45+'19'!E45</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E12:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E12:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="66" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+    </row>
+    <row r="49" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33">
-        <f>+'12'!D47+'5'!D47++'8'!D47+'2'!D47+'7'!D47+'6'!D47+'4'!D47+'9'!D47+'1'!D47+'10'!D47+'3'!D47+'11'!D47+'13'!D47+'14'!D47+'15'!D47+'16'!D47+'17'!D47+'18'!D47+'19'!D47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33">
-        <f>+'12'!D48+'5'!D48++'8'!D48+'2'!D48+'7'!D48+'6'!D48+'4'!D48+'9'!D48+'1'!D48+'10'!D48+'3'!D48+'11'!D48+'13'!D48+'14'!D48+'15'!D48+'16'!D48+'17'!D48+'18'!D48+'19'!D48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33">
@@ -5549,142 +6038,168 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
-        <v>2875891</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="42"/>
+    <row r="50" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
       <c r="D50" s="33">
         <f>+'12'!D50+'5'!D50++'8'!D50+'2'!D50+'7'!D50+'6'!D50+'4'!D50+'9'!D50+'1'!D50+'10'!D50+'3'!D50+'11'!D50+'13'!D50+'14'!D50+'15'!D50+'16'!D50+'17'!D50+'18'!D50+'19'!D50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="52" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="52" t="s">
+    <row r="51" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33">
+        <f>+'12'!D51+'5'!D51++'8'!D51+'2'!D51+'7'!D51+'6'!D51+'4'!D51+'9'!D51+'1'!D51+'10'!D51+'3'!D51+'11'!D51+'13'!D51+'14'!D51+'15'!D51+'16'!D51+'17'!D51+'18'!D51+'19'!D51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="42"/>
+      <c r="D52" s="33">
+        <f>+'12'!D52+'5'!D52++'8'!D52+'2'!D52+'7'!D52+'6'!D52+'4'!D52+'9'!D52+'1'!D52+'10'!D52+'3'!D52+'11'!D52+'13'!D52+'14'!D52+'15'!D52+'16'!D52+'17'!D52+'18'!D52+'19'!D52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="54" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20" t="s">
+      <c r="B54" s="53"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E54" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="62" t="s">
+      <c r="F54" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="63"/>
-    </row>
-    <row r="53" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="65"/>
-    </row>
-    <row r="55" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="78"/>
-    </row>
+      <c r="G54" s="63"/>
+    </row>
+    <row r="55" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="53"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="78"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="65"/>
     </row>
     <row r="57" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="53"/>
       <c r="C57" s="22"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
+    </row>
+    <row r="58" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="53"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="78"/>
+    </row>
+    <row r="59" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="53"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="F57:G57"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="F58:G58"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="410" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="29" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="467" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="465" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="407" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="464" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="463" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="462" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D50">
-    <cfRule type="cellIs" dxfId="404" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D52">
+    <cfRule type="cellIs" dxfId="461" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="459" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="401" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D12:D45">
+    <cfRule type="cellIs" dxfId="458" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="456" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5698,10 +6213,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5822,7 +6337,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -6413,77 +6928,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -6491,80 +7044,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="230" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="287" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="285" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="227" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="284" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="282" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="224" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="281" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="279" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="221" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="278" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="276" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="218" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="275" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="273" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="215" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="272" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="212" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="269" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="267" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6575,10 +7139,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6699,7 +7263,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -7290,77 +7854,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -7368,80 +7970,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="209" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="266" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="264" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="206" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="263" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="203" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="260" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="200" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="257" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="255" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="197" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="254" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="194" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="251" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="191" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="248" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7452,10 +8065,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7576,7 +8189,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -8167,77 +8780,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -8245,80 +8896,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="188" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="245" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="185" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="242" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="182" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="239" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="179" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="236" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="176" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="233" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="231" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="173" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="230" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="170" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="227" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8332,10 +8994,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8454,7 +9116,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -9045,157 +9707,206 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47">
-        <v>2845959</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="33"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47">
-        <v>2728382</v>
+        <v>2845959</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C49" s="46"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="167" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="224" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="164" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="221" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="161" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="218" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="158" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="215" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="213" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="155" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="212" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="152" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="209" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="149" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9206,10 +9917,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9330,7 +10041,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -9921,77 +10632,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -9999,80 +10748,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="146" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="203" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="143" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="200" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="140" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="197" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="137" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="194" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="134" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="191" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="131" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="188" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="128" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10083,10 +10843,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10207,7 +10967,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -10798,77 +11558,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -10876,80 +11674,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="125" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="182" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="122" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="179" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="119" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="176" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="116" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="173" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="113" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="170" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="110" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="167" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="107" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10960,10 +11769,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11084,7 +11893,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -11675,77 +12484,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -11753,80 +12600,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="104" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="161" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="101" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="158" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="155" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="95" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="152" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="92" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="149" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="89" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="146" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11837,10 +12695,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11961,7 +12819,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -12552,77 +13410,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -12630,80 +13526,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="83" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="140" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="80" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="137" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="77" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="134" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="74" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="131" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="71" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="128" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="125" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12714,10 +13621,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12838,7 +13745,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -13429,77 +14336,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E12:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -13507,80 +14452,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="62" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="119" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="59" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="116" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="113" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="110" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="50" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="107" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="104" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13591,10 +14547,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13715,7 +14671,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -14306,77 +15262,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E12:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -14384,80 +15378,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="98" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="95" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="92" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="89" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="86" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="83" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14471,10 +15476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14595,7 +15600,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -15186,77 +16191,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -15264,80 +16307,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="398" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="455" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="454" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="453" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="395" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="452" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="451" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="450" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="392" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="449" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="448" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="447" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="389" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="446" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="445" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="444" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="386" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="443" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="441" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="383" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="440" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="439" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="438" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="380" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="437" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="435" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15348,10 +16402,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15469,7 +16523,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -16060,77 +17114,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E12:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -16138,80 +17230,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="77" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="74" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="71" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="68" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16225,10 +17328,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16349,7 +17452,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -16940,77 +18043,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47">
-        <v>2845959</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="33"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47">
-        <v>2728382</v>
+        <v>2845959</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C49" s="46"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -17018,80 +18159,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="377" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="434" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="432" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="374" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="431" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="430" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="429" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="371" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="428" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="426" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="368" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="425" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="423" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="365" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="422" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="420" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="362" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="419" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="417" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="359" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="416" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="415" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="414" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17105,10 +18257,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17229,7 +18381,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -17820,77 +18972,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -17898,80 +19088,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="356" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="413" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="411" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="353" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="410" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="408" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="350" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="407" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="405" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="347" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="404" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="402" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="344" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="401" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="399" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="341" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="398" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="396" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="338" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="395" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="393" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17985,10 +19186,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18109,7 +19310,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -18700,77 +19901,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -18778,80 +20017,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="335" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="392" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="390" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="332" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="389" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="387" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="329" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="386" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="384" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="326" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="383" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="381" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="323" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="380" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="378" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="320" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="377" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="375" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="317" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="374" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="372" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18865,10 +20115,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18989,7 +20239,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -19580,77 +20830,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47">
-        <v>2845959</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="33"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47">
-        <v>2728382</v>
+        <v>2845959</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C49" s="46"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -19658,80 +20946,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="314" priority="46" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="47" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="371" priority="49" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="369" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="311" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="368" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="366" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="308" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="365" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="363" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="305" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="362" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="360" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="302" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="359" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="357" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="299" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="356" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="354" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="296" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="353" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="351" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19745,10 +21044,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19872,7 +21171,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -20463,157 +21762,206 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>2845959</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="293" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="350" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="348" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="290" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="347" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="345" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="287" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="344" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="342" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="284" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="341" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="339" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="281" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="338" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="336" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="278" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="335" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="333" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="275" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="332" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="330" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20627,10 +21975,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20751,7 +22099,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -21342,77 +22690,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47">
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="47">
         <v>2845959</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B49" s="48" t="s">
         <v>21</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47">
-        <v>2728382</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>8</v>
       </c>
       <c r="C49" s="46"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -21420,80 +22806,91 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="272" priority="43" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="44" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="329" priority="46" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="327" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="269" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="32" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="326" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="266" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="323" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="321" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="263" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="320" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="318" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="260" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="317" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="315" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="257" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="314" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="312" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="254" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="311" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21507,10 +22904,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21631,7 +23028,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F43" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -22222,77 +23619,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="85">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="85">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="10">
-        <f>SUM(E14:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="16">
-        <f>SUM(F12:F43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="79" t="s">
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47">
-        <v>2845959</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47">
-        <v>2845955</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="33"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47">
-        <v>2728382</v>
+        <v>2845959</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C49" s="46"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <v>2875891</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -22300,80 +23735,91 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="251" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="308" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="306" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E43">
-    <cfRule type="cellIs" dxfId="248" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="305" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="303" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="245" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="302" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="300" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48 D50">
-    <cfRule type="cellIs" dxfId="242" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="299" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="239" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="296" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="236" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="293" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="233" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="290" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWS.xlsx
+++ b/SWS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Andromede-app-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAFA2FB-5A9A-481F-9480-1449AD38BC8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6032D3D3-7DAE-4CED-9E21-D0558D54F0D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -1019,6 +1019,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1114,12 +1120,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5152,61 +5152,61 @@
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -5955,13 +5955,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -5977,14 +5977,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -6000,10 +6000,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E12:E45)</f>
         <v>0</v>
@@ -6018,12 +6018,12 @@
     </row>
     <row r="47" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="68"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="70"/>
     </row>
     <row r="49" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
@@ -6079,10 +6079,10 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="54" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="53"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="19"/>
       <c r="D54" s="20" t="s">
         <v>48</v>
@@ -6090,55 +6090,55 @@
       <c r="E54" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="F54" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="63"/>
+      <c r="G54" s="65"/>
     </row>
     <row r="55" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="53"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="22"/>
       <c r="D56" s="23"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="65"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="53"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="22"/>
       <c r="D57" s="25"/>
       <c r="E57" s="26"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="78"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="80"/>
     </row>
     <row r="58" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="49"/>
       <c r="D58" s="50"/>
       <c r="E58" s="51"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="78"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="80"/>
     </row>
     <row r="59" spans="1:7" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="53"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="22"/>
       <c r="D59" s="27"/>
       <c r="E59" s="28"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="55"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6216,59 +6216,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6276,8 +6276,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -6296,11 +6296,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -6929,13 +6929,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -6948,14 +6948,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -6968,10 +6968,10 @@
     </row>
     <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -6986,10 +6986,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -7045,90 +7045,90 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="287" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="263" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="284" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="281" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="257" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="255" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="278" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="254" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="275" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="251" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="272" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="248" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="269" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7142,59 +7142,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -7202,8 +7202,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7222,11 +7222,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -7855,13 +7855,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -7874,14 +7874,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -7894,10 +7894,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -7912,10 +7912,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -7971,90 +7971,90 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="266" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="239" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="263" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="260" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="231" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="257" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="254" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="227" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="251" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="224" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="248" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="221" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8068,59 +8068,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -8128,8 +8128,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8148,11 +8148,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -8781,13 +8781,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -8800,14 +8800,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -8820,10 +8820,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -8838,10 +8838,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -8897,90 +8897,90 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="245" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="215" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="213" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="242" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="212" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="239" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="207" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="236" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="233" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="230" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="227" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8997,59 +8997,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -9075,11 +9075,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -9708,13 +9708,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -9727,14 +9727,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -9747,10 +9747,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -9765,10 +9765,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -9823,90 +9823,90 @@
     <mergeCell ref="A5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="224" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="221" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="218" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="215" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="212" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="209" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="206" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9920,59 +9920,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -9980,8 +9980,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -10000,11 +10000,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -10633,13 +10633,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -10652,14 +10652,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -10672,10 +10672,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -10690,10 +10690,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -10749,90 +10749,90 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="203" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="200" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="197" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="194" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="191" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="188" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="185" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10846,59 +10846,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -10906,8 +10906,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -10926,11 +10926,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -11559,13 +11559,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -11578,14 +11578,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -11598,10 +11598,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -11616,10 +11616,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -11675,90 +11675,90 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="182" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="179" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="176" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="173" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="170" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="167" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="164" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11772,59 +11772,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -11832,8 +11832,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -11852,11 +11852,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -12485,13 +12485,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -12504,14 +12504,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -12524,10 +12524,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -12542,1862 +12542,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="31">
-        <v>2845959</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34">
-        <v>2875891</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="E7:F7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="161" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="38" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="39" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="158" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="26" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="27" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="155" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="8" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="152" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="17" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="149" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="14" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="146" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="11" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="143" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
-    </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-    </row>
-    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="18" t="str">
-        <f>+'BON DE PREPARATION'!B9</f>
-        <v>08 07 2023</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="81" t="str">
-        <f>+'BON DE PREPARATION'!B8</f>
-        <v>ZOUBIRI AMINE</v>
-      </c>
-      <c r="F9" s="81"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>2644573</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13">
-        <v>10</v>
-      </c>
-      <c r="D12" s="30">
-        <v>174</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>2646698</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13">
-        <v>10</v>
-      </c>
-      <c r="D13" s="30">
-        <v>174</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>2682282</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="13">
-        <v>4</v>
-      </c>
-      <c r="D14" s="30">
-        <v>948</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>2728380</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13">
-        <v>6</v>
-      </c>
-      <c r="D15" s="30">
-        <v>153</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="13">
-        <v>12</v>
-      </c>
-      <c r="D16" s="30">
-        <v>85</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>2766729</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="13">
-        <v>10</v>
-      </c>
-      <c r="D17" s="30">
-        <v>279</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>2766835</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="13">
-        <v>4</v>
-      </c>
-      <c r="D18" s="30">
-        <v>690</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>2791901</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13">
-        <v>10</v>
-      </c>
-      <c r="D19" s="30">
-        <v>368</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>2806713</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="13">
-        <v>4</v>
-      </c>
-      <c r="D20" s="30">
-        <v>790</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>2806719</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="13">
-        <v>3</v>
-      </c>
-      <c r="D21" s="30">
-        <v>1190</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>2817870</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="13">
-        <v>4</v>
-      </c>
-      <c r="D22" s="30">
-        <v>755</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>2820870</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="13">
-        <v>12</v>
-      </c>
-      <c r="D23" s="30">
-        <v>198</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>2821686</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="13">
-        <v>25</v>
-      </c>
-      <c r="D24" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>2823409</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="13">
-        <v>25</v>
-      </c>
-      <c r="D25" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>2823411</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="13">
-        <v>12</v>
-      </c>
-      <c r="D26" s="30">
-        <v>198</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>2829475</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="13">
-        <v>10</v>
-      </c>
-      <c r="D27" s="30">
-        <v>295</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="13">
-        <v>25</v>
-      </c>
-      <c r="D28" s="30">
-        <v>94</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>2830114</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="13">
-        <v>12</v>
-      </c>
-      <c r="D29" s="30">
-        <v>219</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="13">
-        <v>12</v>
-      </c>
-      <c r="D30" s="30">
-        <v>273</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>2845956</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="13">
-        <v>4</v>
-      </c>
-      <c r="D31" s="30">
-        <v>652</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>2845959</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="13">
-        <v>12</v>
-      </c>
-      <c r="D32" s="30">
-        <v>161.5</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>2859185</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="13">
-        <v>4</v>
-      </c>
-      <c r="D33" s="30">
-        <v>790</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>2860119</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="13">
-        <v>4</v>
-      </c>
-      <c r="D34" s="30">
-        <v>790</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>2875891</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="13">
-        <v>25</v>
-      </c>
-      <c r="D35" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>2875892</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="13">
-        <v>12</v>
-      </c>
-      <c r="D36" s="30">
-        <v>198</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>2875893</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="13">
-        <v>8</v>
-      </c>
-      <c r="D37" s="30">
-        <v>388</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="13">
-        <v>4</v>
-      </c>
-      <c r="D38" s="30">
-        <v>557</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>2910278</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13">
-        <v>12</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="36">
-        <v>4</v>
-      </c>
-      <c r="D40" s="30">
-        <v>775</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="36">
-        <v>4</v>
-      </c>
-      <c r="D41" s="30">
-        <v>708</v>
-      </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37">
-        <v>2922764</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="36">
-        <v>4</v>
-      </c>
-      <c r="D42" s="30">
-        <v>790</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37">
-        <v>2922795</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="36">
-        <v>10</v>
-      </c>
-      <c r="D43" s="30">
-        <v>368</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="85">
-        <v>10</v>
-      </c>
-      <c r="D44" s="30">
-        <v>368</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
-        <v>2940804</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="85">
-        <v>4</v>
-      </c>
-      <c r="D45" s="30">
-        <v>1170</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="76"/>
-      <c r="D46" s="10">
-        <f>SUM(E14:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="16">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="31">
-        <v>2845959</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34">
-        <v>2875891</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="E7:F7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="140" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="38" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="39" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="137" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="26" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="27" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="134" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="8" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="131" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="17" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="128" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="14" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="125" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="11" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="122" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
-    </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-    </row>
-    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="18" t="str">
-        <f>+'BON DE PREPARATION'!B9</f>
-        <v>08 07 2023</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="81" t="str">
-        <f>+'BON DE PREPARATION'!B8</f>
-        <v>ZOUBIRI AMINE</v>
-      </c>
-      <c r="F9" s="81"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>2644573</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13">
-        <v>10</v>
-      </c>
-      <c r="D12" s="30">
-        <v>174</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>2646698</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13">
-        <v>10</v>
-      </c>
-      <c r="D13" s="30">
-        <v>174</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>2682282</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="13">
-        <v>4</v>
-      </c>
-      <c r="D14" s="30">
-        <v>948</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>2728380</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13">
-        <v>6</v>
-      </c>
-      <c r="D15" s="30">
-        <v>153</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="13">
-        <v>12</v>
-      </c>
-      <c r="D16" s="30">
-        <v>85</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>2766729</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="13">
-        <v>10</v>
-      </c>
-      <c r="D17" s="30">
-        <v>279</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>2766835</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="13">
-        <v>4</v>
-      </c>
-      <c r="D18" s="30">
-        <v>690</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>2791901</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13">
-        <v>10</v>
-      </c>
-      <c r="D19" s="30">
-        <v>368</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>2806713</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="13">
-        <v>4</v>
-      </c>
-      <c r="D20" s="30">
-        <v>790</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>2806719</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="13">
-        <v>3</v>
-      </c>
-      <c r="D21" s="30">
-        <v>1190</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>2817870</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="13">
-        <v>4</v>
-      </c>
-      <c r="D22" s="30">
-        <v>755</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>2820870</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="13">
-        <v>12</v>
-      </c>
-      <c r="D23" s="30">
-        <v>198</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>2821686</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="13">
-        <v>25</v>
-      </c>
-      <c r="D24" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>2823409</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="13">
-        <v>25</v>
-      </c>
-      <c r="D25" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>2823411</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="13">
-        <v>12</v>
-      </c>
-      <c r="D26" s="30">
-        <v>198</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>2829475</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="13">
-        <v>10</v>
-      </c>
-      <c r="D27" s="30">
-        <v>295</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="13">
-        <v>25</v>
-      </c>
-      <c r="D28" s="30">
-        <v>94</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>2830114</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="13">
-        <v>12</v>
-      </c>
-      <c r="D29" s="30">
-        <v>219</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="13">
-        <v>12</v>
-      </c>
-      <c r="D30" s="30">
-        <v>273</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>2845956</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="13">
-        <v>4</v>
-      </c>
-      <c r="D31" s="30">
-        <v>652</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>2845959</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="13">
-        <v>12</v>
-      </c>
-      <c r="D32" s="30">
-        <v>161.5</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>2859185</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="13">
-        <v>4</v>
-      </c>
-      <c r="D33" s="30">
-        <v>790</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>2860119</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="13">
-        <v>4</v>
-      </c>
-      <c r="D34" s="30">
-        <v>790</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>2875891</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="13">
-        <v>25</v>
-      </c>
-      <c r="D35" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>2875892</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="13">
-        <v>12</v>
-      </c>
-      <c r="D36" s="30">
-        <v>198</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>2875893</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="13">
-        <v>8</v>
-      </c>
-      <c r="D37" s="30">
-        <v>388</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="13">
-        <v>4</v>
-      </c>
-      <c r="D38" s="30">
-        <v>557</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>2910278</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13">
-        <v>12</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="36">
-        <v>4</v>
-      </c>
-      <c r="D40" s="30">
-        <v>775</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="36">
-        <v>4</v>
-      </c>
-      <c r="D41" s="30">
-        <v>708</v>
-      </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37">
-        <v>2922764</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="36">
-        <v>4</v>
-      </c>
-      <c r="D42" s="30">
-        <v>790</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37">
-        <v>2922795</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="36">
-        <v>10</v>
-      </c>
-      <c r="D43" s="30">
-        <v>368</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="85">
-        <v>10</v>
-      </c>
-      <c r="D44" s="30">
-        <v>368</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
-        <v>2940804</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="85">
-        <v>4</v>
-      </c>
-      <c r="D45" s="30">
-        <v>1170</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="76"/>
-      <c r="D46" s="10">
-        <f>SUM(E14:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="16">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -14530,13 +12678,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14545,64 +12693,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -14610,8 +12758,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -14630,11 +12778,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -15263,13 +13411,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -15282,14 +13430,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -15302,10 +13450,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -15320,10 +13468,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -15379,79 +13527,1005 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="98" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="95" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="92" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="89" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="86" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="83" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="80" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="18" t="str">
+        <f>+'BON DE PREPARATION'!B9</f>
+        <v>08 07 2023</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="83" t="str">
+        <f>+'BON DE PREPARATION'!B8</f>
+        <v>ZOUBIRI AMINE</v>
+      </c>
+      <c r="F9" s="83"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2644573</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>10</v>
+      </c>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2646698</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2682282</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="13">
+        <v>4</v>
+      </c>
+      <c r="D14" s="30">
+        <v>948</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2728380</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="13">
+        <v>6</v>
+      </c>
+      <c r="D15" s="30">
+        <v>153</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13">
+        <v>12</v>
+      </c>
+      <c r="D16" s="30">
+        <v>85</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2766729</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13">
+        <v>10</v>
+      </c>
+      <c r="D17" s="30">
+        <v>279</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2766835</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13">
+        <v>4</v>
+      </c>
+      <c r="D18" s="30">
+        <v>690</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2791901</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13">
+        <v>10</v>
+      </c>
+      <c r="D19" s="30">
+        <v>368</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2806713</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13">
+        <v>4</v>
+      </c>
+      <c r="D20" s="30">
+        <v>790</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2806719</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1190</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2817870</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="30">
+        <v>755</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2820870</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="13">
+        <v>12</v>
+      </c>
+      <c r="D23" s="30">
+        <v>198</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2821686</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="13">
+        <v>25</v>
+      </c>
+      <c r="D24" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2823409</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="13">
+        <v>25</v>
+      </c>
+      <c r="D25" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2823411</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="13">
+        <v>12</v>
+      </c>
+      <c r="D26" s="30">
+        <v>198</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2829475</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="13">
+        <v>10</v>
+      </c>
+      <c r="D27" s="30">
+        <v>295</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="13">
+        <v>25</v>
+      </c>
+      <c r="D28" s="30">
+        <v>94</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2830114</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="13">
+        <v>12</v>
+      </c>
+      <c r="D29" s="30">
+        <v>219</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="13">
+        <v>12</v>
+      </c>
+      <c r="D30" s="30">
+        <v>273</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="13">
+        <v>4</v>
+      </c>
+      <c r="D31" s="30">
+        <v>652</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2845959</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="13">
+        <v>12</v>
+      </c>
+      <c r="D32" s="30">
+        <v>161.5</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>2859185</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4</v>
+      </c>
+      <c r="D33" s="30">
+        <v>790</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2860119</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" s="30">
+        <v>790</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2875891</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="13">
+        <v>25</v>
+      </c>
+      <c r="D35" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="13">
+        <v>12</v>
+      </c>
+      <c r="D36" s="30">
+        <v>198</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2875893</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="13">
+        <v>8</v>
+      </c>
+      <c r="D37" s="30">
+        <v>388</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2876884</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="13">
+        <v>4</v>
+      </c>
+      <c r="D38" s="30">
+        <v>557</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2910278</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="13">
+        <v>12</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="36">
+        <v>4</v>
+      </c>
+      <c r="D40" s="30">
+        <v>775</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="36">
+        <v>4</v>
+      </c>
+      <c r="D41" s="30">
+        <v>708</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
+        <v>2922764</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="36">
+        <v>4</v>
+      </c>
+      <c r="D42" s="30">
+        <v>790</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37">
+        <v>2922795</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="36">
+        <v>10</v>
+      </c>
+      <c r="D43" s="30">
+        <v>368</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="53">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="52">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="53">
+        <v>3</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="82"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
+        <v>2845959</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="71" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="38" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="39" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="68" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="26" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="65" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="62" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="17" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="59" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="14" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D43">
+    <cfRule type="cellIs" dxfId="53" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15463,6 +14537,932 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="18" t="str">
+        <f>+'BON DE PREPARATION'!B9</f>
+        <v>08 07 2023</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="83" t="str">
+        <f>+'BON DE PREPARATION'!B8</f>
+        <v>ZOUBIRI AMINE</v>
+      </c>
+      <c r="F9" s="83"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2644573</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>10</v>
+      </c>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2646698</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2682282</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="13">
+        <v>4</v>
+      </c>
+      <c r="D14" s="30">
+        <v>948</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2728380</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="13">
+        <v>6</v>
+      </c>
+      <c r="D15" s="30">
+        <v>153</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13">
+        <v>12</v>
+      </c>
+      <c r="D16" s="30">
+        <v>85</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2766729</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13">
+        <v>10</v>
+      </c>
+      <c r="D17" s="30">
+        <v>279</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2766835</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13">
+        <v>4</v>
+      </c>
+      <c r="D18" s="30">
+        <v>690</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2791901</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13">
+        <v>10</v>
+      </c>
+      <c r="D19" s="30">
+        <v>368</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2806713</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13">
+        <v>4</v>
+      </c>
+      <c r="D20" s="30">
+        <v>790</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2806719</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1190</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2817870</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="30">
+        <v>755</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2820870</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="13">
+        <v>12</v>
+      </c>
+      <c r="D23" s="30">
+        <v>198</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2821686</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="13">
+        <v>25</v>
+      </c>
+      <c r="D24" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2823409</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="13">
+        <v>25</v>
+      </c>
+      <c r="D25" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2823411</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="13">
+        <v>12</v>
+      </c>
+      <c r="D26" s="30">
+        <v>198</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2829475</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="13">
+        <v>10</v>
+      </c>
+      <c r="D27" s="30">
+        <v>295</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="13">
+        <v>25</v>
+      </c>
+      <c r="D28" s="30">
+        <v>94</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2830114</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="13">
+        <v>12</v>
+      </c>
+      <c r="D29" s="30">
+        <v>219</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="13">
+        <v>12</v>
+      </c>
+      <c r="D30" s="30">
+        <v>273</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="13">
+        <v>4</v>
+      </c>
+      <c r="D31" s="30">
+        <v>652</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2845959</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="13">
+        <v>12</v>
+      </c>
+      <c r="D32" s="30">
+        <v>161.5</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>2859185</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4</v>
+      </c>
+      <c r="D33" s="30">
+        <v>790</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2860119</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" s="30">
+        <v>790</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2875891</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="13">
+        <v>25</v>
+      </c>
+      <c r="D35" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="13">
+        <v>12</v>
+      </c>
+      <c r="D36" s="30">
+        <v>198</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2875893</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="13">
+        <v>8</v>
+      </c>
+      <c r="D37" s="30">
+        <v>388</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2876884</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="13">
+        <v>4</v>
+      </c>
+      <c r="D38" s="30">
+        <v>557</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2910278</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="13">
+        <v>12</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="36">
+        <v>4</v>
+      </c>
+      <c r="D40" s="30">
+        <v>775</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="36">
+        <v>4</v>
+      </c>
+      <c r="D41" s="30">
+        <v>708</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
+        <v>2922764</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="36">
+        <v>4</v>
+      </c>
+      <c r="D42" s="30">
+        <v>790</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37">
+        <v>2922795</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="36">
+        <v>10</v>
+      </c>
+      <c r="D43" s="30">
+        <v>368</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="53">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="52">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="53">
+        <v>3</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="82"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
+        <v>2845959</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="44" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="26" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D43">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15479,59 +15479,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -15539,8 +15539,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -15559,11 +15559,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -16192,13 +16192,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -16211,14 +16211,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -16231,10 +16231,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -16249,10 +16249,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -16385,13 +16385,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="434" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="432" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16405,59 +16405,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -16465,8 +16465,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -16482,11 +16482,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -17115,13 +17115,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -17134,14 +17134,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -17154,10 +17154,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -17172,10 +17172,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -17231,90 +17231,90 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="77" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="74" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="71" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="68" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="65" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17331,59 +17331,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -17391,8 +17391,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -17411,11 +17411,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -18044,13 +18044,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -18063,14 +18063,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -18083,10 +18083,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -18101,10 +18101,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -18160,90 +18160,90 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="434" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="431" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="430" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="429" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="431" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="428" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="426" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="428" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="425" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="423" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="425" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="422" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="420" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="422" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="419" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="417" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="419" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="416" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="415" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="414" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="416" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="413" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="411" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="410" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="408" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18260,59 +18260,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -18320,8 +18320,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -18340,11 +18340,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -18973,13 +18973,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -18992,14 +18992,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -19012,10 +19012,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -19030,10 +19030,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -19089,90 +19089,90 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="413" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="407" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="405" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="410" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="404" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="402" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="407" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="401" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="399" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="404" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="398" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="396" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="401" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="395" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="393" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="398" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="392" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="390" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="395" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="389" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="387" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="386" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="384" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19188,60 +19188,60 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -19249,8 +19249,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -19269,11 +19269,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -19902,13 +19902,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -19921,14 +19921,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -19941,10 +19941,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -19959,10 +19959,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -20018,90 +20018,90 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="392" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="383" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="381" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="389" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="380" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="378" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="386" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="377" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="375" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="383" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="374" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="372" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="380" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="371" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="369" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="377" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="368" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="366" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="374" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="365" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="363" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="362" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="360" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20118,59 +20118,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -20178,8 +20178,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -20198,11 +20198,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -20831,13 +20831,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -20850,14 +20850,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -20870,10 +20870,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -20888,10 +20888,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -20947,90 +20947,90 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="371" priority="49" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="359" priority="49" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="357" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="368" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="356" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="354" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="365" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="353" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="351" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="362" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="350" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="348" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="359" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="347" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="345" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="356" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="344" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="342" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="353" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="341" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="339" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="338" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="336" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21047,59 +21047,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -21125,11 +21125,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
@@ -21763,13 +21763,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -21782,14 +21782,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -21802,10 +21802,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -21820,10 +21820,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -21878,90 +21878,90 @@
     <mergeCell ref="A5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="350" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="335" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="333" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="347" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="332" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="330" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="344" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="329" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="327" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="341" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="326" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="338" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="323" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="321" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="335" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="320" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="318" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="332" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="317" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="315" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="312" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21978,59 +21978,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -22038,8 +22038,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -22058,11 +22058,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -22691,13 +22691,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -22710,14 +22710,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -22730,10 +22730,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -22748,10 +22748,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -22807,90 +22807,90 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="329" priority="46" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="311" priority="46" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="326" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="308" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="306" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="323" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="305" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="303" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="320" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="302" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="300" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="317" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="299" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="314" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="311" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="293" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="290" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22907,59 +22907,59 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -22967,8 +22967,8 @@
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -22987,11 +22987,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="81" t="str">
+      <c r="E9" s="83" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -23620,13 +23620,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="53">
         <v>10</v>
       </c>
       <c r="D44" s="30">
@@ -23639,14 +23639,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="52">
         <v>2940804</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="85">
-        <v>4</v>
+      <c r="C45" s="53">
+        <v>3</v>
       </c>
       <c r="D45" s="30">
         <v>1170</v>
@@ -23659,10 +23659,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -23677,10 +23677,10 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="39"/>
       <c r="D48" s="40"/>
     </row>
@@ -23736,90 +23736,90 @@
     <mergeCell ref="A5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="308" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="287" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="285" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="305" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="284" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="282" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="302" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="279" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="299" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="278" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="276" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="296" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="275" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="273" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="293" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="272" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="290" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="269" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="267" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="266" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="264" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWS.xlsx
+++ b/SWS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Andromede-app-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6032D3D3-7DAE-4CED-9E21-D0558D54F0D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD226E5-C4E3-49B7-9584-51800808EA0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5152,8 +5152,8 @@
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -5856,7 +5856,9 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="15">
+        <v>111</v>
+      </c>
       <c r="E39" s="15">
         <f>+'1'!E39+'2'!E39+'3'!E39+'4'!E39+'5'!E39+'6'!E39+'7'!E39+'8'!E39+'9'!E39+'10'!E39+'11'!E39+'12'!E39+'13'!E39+'14'!E39+'15'!E39+'16'!E39+'17'!E39+'18'!E39+'19'!E39</f>
         <v>0</v>
@@ -5866,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -6215,7 +6217,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -6835,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -6845,7 +6847,9 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
@@ -7141,7 +7145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -7742,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -7761,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -7771,14 +7775,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -8668,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -8687,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -8697,14 +8703,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -8996,7 +9004,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -9595,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -9614,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -9624,14 +9632,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -9919,7 +9929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -10520,7 +10530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -10539,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -10549,14 +10559,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -11446,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -11465,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -11475,14 +11487,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -11771,7 +11785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -12372,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -12391,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -12401,14 +12415,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -13298,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -13317,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -13327,14 +13343,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -14224,7 +14242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -14243,7 +14261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -14253,14 +14271,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -15150,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -15169,7 +15189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -15179,14 +15199,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -15473,6 +15495,2793 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="18" t="str">
+        <f>+'BON DE PREPARATION'!B9</f>
+        <v>08 07 2023</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="83" t="str">
+        <f>+'BON DE PREPARATION'!B8</f>
+        <v>ZOUBIRI AMINE</v>
+      </c>
+      <c r="F9" s="83"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2644573</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>10</v>
+      </c>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2646698</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2682282</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="13">
+        <v>4</v>
+      </c>
+      <c r="D14" s="30">
+        <v>948</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2728380</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="13">
+        <v>6</v>
+      </c>
+      <c r="D15" s="30">
+        <v>153</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13">
+        <v>12</v>
+      </c>
+      <c r="D16" s="30">
+        <v>85</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2766729</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13">
+        <v>10</v>
+      </c>
+      <c r="D17" s="30">
+        <v>279</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2766835</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13">
+        <v>4</v>
+      </c>
+      <c r="D18" s="30">
+        <v>690</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2791901</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13">
+        <v>10</v>
+      </c>
+      <c r="D19" s="30">
+        <v>368</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2806713</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13">
+        <v>4</v>
+      </c>
+      <c r="D20" s="30">
+        <v>790</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2806719</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1190</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2817870</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="30">
+        <v>755</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2820870</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="13">
+        <v>12</v>
+      </c>
+      <c r="D23" s="30">
+        <v>198</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2821686</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="13">
+        <v>25</v>
+      </c>
+      <c r="D24" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2823409</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="13">
+        <v>25</v>
+      </c>
+      <c r="D25" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2823411</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="13">
+        <v>12</v>
+      </c>
+      <c r="D26" s="30">
+        <v>198</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2829475</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="13">
+        <v>10</v>
+      </c>
+      <c r="D27" s="30">
+        <v>295</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="13">
+        <v>25</v>
+      </c>
+      <c r="D28" s="30">
+        <v>94</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2830114</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="13">
+        <v>12</v>
+      </c>
+      <c r="D29" s="30">
+        <v>219</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="13">
+        <v>12</v>
+      </c>
+      <c r="D30" s="30">
+        <v>273</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="13">
+        <v>4</v>
+      </c>
+      <c r="D31" s="30">
+        <v>652</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2845959</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="13">
+        <v>12</v>
+      </c>
+      <c r="D32" s="30">
+        <v>161.5</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>2859185</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4</v>
+      </c>
+      <c r="D33" s="30">
+        <v>790</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2860119</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" s="30">
+        <v>790</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2875891</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="13">
+        <v>25</v>
+      </c>
+      <c r="D35" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="13">
+        <v>12</v>
+      </c>
+      <c r="D36" s="30">
+        <v>198</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2875893</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="13">
+        <v>8</v>
+      </c>
+      <c r="D37" s="30">
+        <v>388</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2876884</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="13">
+        <v>4</v>
+      </c>
+      <c r="D38" s="30">
+        <v>557</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2910278</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="13">
+        <v>12</v>
+      </c>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="36">
+        <v>4</v>
+      </c>
+      <c r="D40" s="30">
+        <v>775</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="36">
+        <v>4</v>
+      </c>
+      <c r="D41" s="30">
+        <v>708</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
+        <v>2922764</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="36">
+        <v>4</v>
+      </c>
+      <c r="D42" s="30">
+        <v>790</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37">
+        <v>2922795</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="36">
+        <v>10</v>
+      </c>
+      <c r="D43" s="30">
+        <v>368</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="53">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="52">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="53">
+        <v>3</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="82"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
+        <v>2845959</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="455" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="454" priority="38" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="453" priority="39" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="452" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="451" priority="26" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="450" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="449" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="448" priority="8" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="447" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="446" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="445" priority="17" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="444" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="443" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="14" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="441" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="440" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="439" priority="11" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="438" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D43">
+    <cfRule type="cellIs" dxfId="437" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="5" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="435" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="434" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="83" t="str">
+        <f>+'BON DE PREPARATION'!B8</f>
+        <v>ZOUBIRI AMINE</v>
+      </c>
+      <c r="F9" s="83"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2644573</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>10</v>
+      </c>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2646698</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2682282</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="13">
+        <v>4</v>
+      </c>
+      <c r="D14" s="30">
+        <v>948</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2728380</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="13">
+        <v>6</v>
+      </c>
+      <c r="D15" s="30">
+        <v>153</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13">
+        <v>12</v>
+      </c>
+      <c r="D16" s="30">
+        <v>85</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2766729</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13">
+        <v>10</v>
+      </c>
+      <c r="D17" s="30">
+        <v>279</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2766835</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13">
+        <v>4</v>
+      </c>
+      <c r="D18" s="30">
+        <v>690</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2791901</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13">
+        <v>10</v>
+      </c>
+      <c r="D19" s="30">
+        <v>368</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2806713</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13">
+        <v>4</v>
+      </c>
+      <c r="D20" s="30">
+        <v>790</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2806719</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1190</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2817870</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="30">
+        <v>755</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2820870</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="13">
+        <v>12</v>
+      </c>
+      <c r="D23" s="30">
+        <v>198</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2821686</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="13">
+        <v>25</v>
+      </c>
+      <c r="D24" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2823409</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="13">
+        <v>25</v>
+      </c>
+      <c r="D25" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2823411</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="13">
+        <v>12</v>
+      </c>
+      <c r="D26" s="30">
+        <v>198</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2829475</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="13">
+        <v>10</v>
+      </c>
+      <c r="D27" s="30">
+        <v>295</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="13">
+        <v>25</v>
+      </c>
+      <c r="D28" s="30">
+        <v>94</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2830114</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="13">
+        <v>12</v>
+      </c>
+      <c r="D29" s="30">
+        <v>219</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="13">
+        <v>12</v>
+      </c>
+      <c r="D30" s="30">
+        <v>273</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="13">
+        <v>4</v>
+      </c>
+      <c r="D31" s="30">
+        <v>652</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2845959</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="13">
+        <v>12</v>
+      </c>
+      <c r="D32" s="30">
+        <v>161.5</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>2859185</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4</v>
+      </c>
+      <c r="D33" s="30">
+        <v>790</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2860119</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" s="30">
+        <v>790</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2875891</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="13">
+        <v>25</v>
+      </c>
+      <c r="D35" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="13">
+        <v>12</v>
+      </c>
+      <c r="D36" s="30">
+        <v>198</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2875893</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="13">
+        <v>8</v>
+      </c>
+      <c r="D37" s="30">
+        <v>388</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2876884</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="13">
+        <v>4</v>
+      </c>
+      <c r="D38" s="30">
+        <v>557</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2910278</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="13">
+        <v>12</v>
+      </c>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="36">
+        <v>4</v>
+      </c>
+      <c r="D40" s="30">
+        <v>775</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="36">
+        <v>4</v>
+      </c>
+      <c r="D41" s="30">
+        <v>708</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
+        <v>2922764</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="36">
+        <v>4</v>
+      </c>
+      <c r="D42" s="30">
+        <v>790</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37">
+        <v>2922795</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="36">
+        <v>10</v>
+      </c>
+      <c r="D43" s="30">
+        <v>368</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="53">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="52">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="53">
+        <v>3</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="82"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
+        <v>2845959</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="23" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="38" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="39" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D43">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="18" t="str">
+        <f>+'BON DE PREPARATION'!B9</f>
+        <v>08 07 2023</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="83" t="str">
+        <f>+'BON DE PREPARATION'!B8</f>
+        <v>ZOUBIRI AMINE</v>
+      </c>
+      <c r="F9" s="83"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2644573</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>10</v>
+      </c>
+      <c r="D12" s="30">
+        <v>174</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2646698</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="30">
+        <v>174</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2682282</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="13">
+        <v>4</v>
+      </c>
+      <c r="D14" s="30">
+        <v>948</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2728380</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="13">
+        <v>6</v>
+      </c>
+      <c r="D15" s="30">
+        <v>153</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13">
+        <v>12</v>
+      </c>
+      <c r="D16" s="30">
+        <v>85</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2766729</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13">
+        <v>10</v>
+      </c>
+      <c r="D17" s="30">
+        <v>279</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2766835</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13">
+        <v>4</v>
+      </c>
+      <c r="D18" s="30">
+        <v>690</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2791901</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13">
+        <v>10</v>
+      </c>
+      <c r="D19" s="30">
+        <v>368</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2806713</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13">
+        <v>4</v>
+      </c>
+      <c r="D20" s="30">
+        <v>790</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2806719</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1190</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2817870</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="30">
+        <v>755</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2820870</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="13">
+        <v>12</v>
+      </c>
+      <c r="D23" s="30">
+        <v>198</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2821686</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="13">
+        <v>25</v>
+      </c>
+      <c r="D24" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2823409</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="13">
+        <v>25</v>
+      </c>
+      <c r="D25" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2823411</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="13">
+        <v>12</v>
+      </c>
+      <c r="D26" s="30">
+        <v>198</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2829475</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="13">
+        <v>10</v>
+      </c>
+      <c r="D27" s="30">
+        <v>295</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2830113</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="13">
+        <v>25</v>
+      </c>
+      <c r="D28" s="30">
+        <v>94</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2830114</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="13">
+        <v>12</v>
+      </c>
+      <c r="D29" s="30">
+        <v>219</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2845955</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="13">
+        <v>12</v>
+      </c>
+      <c r="D30" s="30">
+        <v>273</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="13">
+        <v>4</v>
+      </c>
+      <c r="D31" s="30">
+        <v>652</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2845959</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="13">
+        <v>12</v>
+      </c>
+      <c r="D32" s="30">
+        <v>161.5</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>2859185</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4</v>
+      </c>
+      <c r="D33" s="30">
+        <v>790</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2860119</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" s="30">
+        <v>790</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2875891</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="13">
+        <v>25</v>
+      </c>
+      <c r="D35" s="30">
+        <v>83.5</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="13">
+        <v>12</v>
+      </c>
+      <c r="D36" s="30">
+        <v>198</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2875893</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="13">
+        <v>8</v>
+      </c>
+      <c r="D37" s="30">
+        <v>388</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2876884</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="13">
+        <v>4</v>
+      </c>
+      <c r="D38" s="30">
+        <v>557</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2910278</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="13">
+        <v>12</v>
+      </c>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="36">
+        <v>4</v>
+      </c>
+      <c r="D40" s="30">
+        <v>775</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>2918203</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="36">
+        <v>4</v>
+      </c>
+      <c r="D41" s="30">
+        <v>708</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
+        <v>2922764</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="36">
+        <v>4</v>
+      </c>
+      <c r="D42" s="30">
+        <v>790</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37">
+        <v>2922795</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="36">
+        <v>10</v>
+      </c>
+      <c r="D43" s="30">
+        <v>368</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="53">
+        <v>10</v>
+      </c>
+      <c r="D44" s="30">
+        <v>368</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="52">
+        <v>2940804</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="53">
+        <v>3</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1170</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="10">
+        <f>SUM(E14:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="16">
+        <f>SUM(F12:F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="82"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="47">
+        <v>2845959</v>
+      </c>
+      <c r="B49" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="46"/>
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47">
+        <v>2845955</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="33"/>
+    </row>
+    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47">
+        <v>2728382</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="33"/>
+    </row>
+    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
+        <v>2875891</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="42"/>
+      <c r="D52" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="431" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="430" priority="38" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="429" priority="39" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E45">
+    <cfRule type="cellIs" dxfId="428" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="26" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="426" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="425" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="8" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="423" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D50 D52">
+    <cfRule type="cellIs" dxfId="422" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="17" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="420" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="419" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="14" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="417" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="416" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="415" priority="11" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="414" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D43">
+    <cfRule type="cellIs" dxfId="413" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="5" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="411" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:D45">
+    <cfRule type="cellIs" dxfId="410" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -16079,7 +18888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -16098,7 +18907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -16108,14 +18917,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -16308,103 +19119,106 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="455" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="407" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="405" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="452" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="404" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="402" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="449" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="401" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="399" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="446" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="398" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="396" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="443" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="395" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="393" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="440" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="392" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="390" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="437" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="389" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="387" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="434" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="386" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="384" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -16478,7 +19292,10 @@
       <c r="A9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="18" t="str">
+        <f>+'BON DE PREPARATION'!B9</f>
+        <v>08 07 2023</v>
+      </c>
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
@@ -17002,7 +19819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -17021,7 +19838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -17031,14 +19848,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -17231,106 +20050,106 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="23" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="383" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="381" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="380" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="378" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="377" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="375" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="374" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="372" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="371" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="369" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="368" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="366" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="365" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="363" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="362" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="360" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -17931,7 +20750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -17950,7 +20769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -17960,14 +20779,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -18160,90 +20981,90 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="431" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="359" priority="49" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="357" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="428" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="356" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="354" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="425" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="353" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="351" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="422" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="350" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="348" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="419" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="347" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="345" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="416" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="344" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="342" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="413" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="341" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="339" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="410" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="338" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="336" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18252,14 +21073,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -18319,9 +21140,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -18340,11 +21159,16 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="str">
+      <c r="E9" s="85" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="85"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="45" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -18860,7 +21684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -18879,7 +21703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -18889,14 +21713,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -19047,7 +21873,7 @@
       <c r="C49" s="38"/>
       <c r="D49" s="33"/>
     </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>2845955</v>
       </c>
@@ -19078,101 +21904,100 @@
       <c r="D52" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="407" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="335" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="333" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="404" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="332" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="330" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="401" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="329" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="327" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="398" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="326" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="395" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="323" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="321" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="392" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="320" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="318" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="389" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="317" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="315" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="386" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="312" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19181,8 +22006,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -19367,7 +22192,7 @@
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="7">
-        <f t="shared" si="0"/>
+        <f>C15*D15*E15</f>
         <v>0</v>
       </c>
     </row>
@@ -19386,7 +22211,7 @@
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="7">
-        <f t="shared" si="0"/>
+        <f>C16*D16*E16</f>
         <v>0</v>
       </c>
     </row>
@@ -19789,7 +22614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -19808,7 +22633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -19818,14 +22643,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>
@@ -19967,33 +22794,33 @@
       <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="31">
+      <c r="A49" s="47">
         <v>2845959</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="38"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="33"/>
     </row>
     <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+      <c r="A50" s="47">
         <v>2845955</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="38"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="33"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34">
+    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47">
         <v>2728382</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="38"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="33"/>
     </row>
     <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
@@ -20018,90 +22845,90 @@
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="383" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="311" priority="46" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="380" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="308" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="306" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="377" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="305" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="303" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="374" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="302" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="300" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="371" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="299" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="368" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="365" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="293" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="362" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="290" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20110,14 +22937,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -20338,7 +23165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2766835</v>
       </c>
@@ -20718,7 +23545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2876884</v>
       </c>
@@ -20737,7 +23564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2910278</v>
       </c>
@@ -20747,2803 +23574,16 @@
       <c r="C39" s="13">
         <v>12</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="30">
+        <v>111</v>
+      </c>
       <c r="E39" s="15"/>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="36">
-        <v>4</v>
-      </c>
-      <c r="D40" s="30">
-        <v>775</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="36">
-        <v>4</v>
-      </c>
-      <c r="D41" s="30">
-        <v>708</v>
-      </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37">
-        <v>2922764</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="36">
-        <v>4</v>
-      </c>
-      <c r="D42" s="30">
-        <v>790</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37">
-        <v>2922795</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="36">
-        <v>10</v>
-      </c>
-      <c r="D43" s="30">
-        <v>368</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="53">
-        <v>10</v>
-      </c>
-      <c r="D44" s="30">
-        <v>368</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52">
-        <v>2940804</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="53">
-        <v>3</v>
-      </c>
-      <c r="D45" s="30">
-        <v>1170</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="10">
-        <f>SUM(E14:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="16">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="82"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47">
-        <v>2845959</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="47">
-        <v>2845955</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47">
-        <v>2728382</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34">
-        <v>2875891</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="E7:F7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="359" priority="49" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="50" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="51" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="356" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="38" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="39" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="353" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="8" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="350" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="17" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="347" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="14" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="344" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="11" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="341" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="338" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-    </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
-    </row>
-    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="D7" s="43"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="18" t="str">
-        <f>+'BON DE PREPARATION'!B9</f>
-        <v>08 07 2023</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="85" t="str">
-        <f>+'BON DE PREPARATION'!B8</f>
-        <v>ZOUBIRI AMINE</v>
-      </c>
-      <c r="F9" s="85"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>2644573</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13">
-        <v>10</v>
-      </c>
-      <c r="D12" s="30">
-        <v>174</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>2646698</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13">
-        <v>10</v>
-      </c>
-      <c r="D13" s="30">
-        <v>174</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>2682282</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="13">
-        <v>4</v>
-      </c>
-      <c r="D14" s="30">
-        <v>948</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>2728380</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13">
-        <v>6</v>
-      </c>
-      <c r="D15" s="30">
-        <v>153</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="13">
-        <v>12</v>
-      </c>
-      <c r="D16" s="30">
-        <v>85</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>2766729</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="13">
-        <v>10</v>
-      </c>
-      <c r="D17" s="30">
-        <v>279</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>2766835</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="13">
-        <v>4</v>
-      </c>
-      <c r="D18" s="30">
-        <v>690</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>2791901</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13">
-        <v>10</v>
-      </c>
-      <c r="D19" s="30">
-        <v>368</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>2806713</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="13">
-        <v>4</v>
-      </c>
-      <c r="D20" s="30">
-        <v>790</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>2806719</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="13">
-        <v>3</v>
-      </c>
-      <c r="D21" s="30">
-        <v>1190</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>2817870</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="13">
-        <v>4</v>
-      </c>
-      <c r="D22" s="30">
-        <v>755</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>2820870</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="13">
-        <v>12</v>
-      </c>
-      <c r="D23" s="30">
-        <v>198</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>2821686</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="13">
-        <v>25</v>
-      </c>
-      <c r="D24" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>2823409</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="13">
-        <v>25</v>
-      </c>
-      <c r="D25" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>2823411</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="13">
-        <v>12</v>
-      </c>
-      <c r="D26" s="30">
-        <v>198</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>2829475</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="13">
-        <v>10</v>
-      </c>
-      <c r="D27" s="30">
-        <v>295</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="13">
-        <v>25</v>
-      </c>
-      <c r="D28" s="30">
-        <v>94</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>2830114</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="13">
-        <v>12</v>
-      </c>
-      <c r="D29" s="30">
-        <v>219</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="13">
-        <v>12</v>
-      </c>
-      <c r="D30" s="30">
-        <v>273</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>2845956</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="13">
-        <v>4</v>
-      </c>
-      <c r="D31" s="30">
-        <v>652</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>2845959</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="13">
-        <v>12</v>
-      </c>
-      <c r="D32" s="30">
-        <v>161.5</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>2859185</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="13">
-        <v>4</v>
-      </c>
-      <c r="D33" s="30">
-        <v>790</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>2860119</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="13">
-        <v>4</v>
-      </c>
-      <c r="D34" s="30">
-        <v>790</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>2875891</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="13">
-        <v>25</v>
-      </c>
-      <c r="D35" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>2875892</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="13">
-        <v>12</v>
-      </c>
-      <c r="D36" s="30">
-        <v>198</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>2875893</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="13">
-        <v>8</v>
-      </c>
-      <c r="D37" s="30">
-        <v>388</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="13">
-        <v>4</v>
-      </c>
-      <c r="D38" s="30">
-        <v>557</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>2910278</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13">
-        <v>12</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="36">
-        <v>4</v>
-      </c>
-      <c r="D40" s="30">
-        <v>775</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="36">
-        <v>4</v>
-      </c>
-      <c r="D41" s="30">
-        <v>708</v>
-      </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37">
-        <v>2922764</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="36">
-        <v>4</v>
-      </c>
-      <c r="D42" s="30">
-        <v>790</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37">
-        <v>2922795</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="36">
-        <v>10</v>
-      </c>
-      <c r="D43" s="30">
-        <v>368</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="53">
-        <v>10</v>
-      </c>
-      <c r="D44" s="30">
-        <v>368</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52">
-        <v>2940804</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="53">
-        <v>3</v>
-      </c>
-      <c r="D45" s="30">
-        <v>1170</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="10">
-        <f>SUM(E14:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="16">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="82"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="31">
-        <v>2845959</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34">
-        <v>2728382</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34">
-        <v>2875891</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="335" priority="37" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="38" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="39" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="332" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="26" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="27" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="329" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="8" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="326" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="17" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="323" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="14" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="320" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="11" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="317" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="314" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-    </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
-    </row>
-    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="18" t="str">
-        <f>+'BON DE PREPARATION'!B9</f>
-        <v>08 07 2023</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="83" t="str">
-        <f>+'BON DE PREPARATION'!B8</f>
-        <v>ZOUBIRI AMINE</v>
-      </c>
-      <c r="F9" s="83"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>2644573</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13">
-        <v>10</v>
-      </c>
-      <c r="D12" s="30">
-        <v>174</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>2646698</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13">
-        <v>10</v>
-      </c>
-      <c r="D13" s="30">
-        <v>174</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>2682282</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="13">
-        <v>4</v>
-      </c>
-      <c r="D14" s="30">
-        <v>948</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>2728380</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13">
-        <v>6</v>
-      </c>
-      <c r="D15" s="30">
-        <v>153</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="7">
-        <f>C15*D15*E15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="13">
-        <v>12</v>
-      </c>
-      <c r="D16" s="30">
-        <v>85</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="7">
-        <f>C16*D16*E16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>2766729</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="13">
-        <v>10</v>
-      </c>
-      <c r="D17" s="30">
-        <v>279</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>2766835</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="13">
-        <v>4</v>
-      </c>
-      <c r="D18" s="30">
-        <v>690</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>2791901</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13">
-        <v>10</v>
-      </c>
-      <c r="D19" s="30">
-        <v>368</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>2806713</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="13">
-        <v>4</v>
-      </c>
-      <c r="D20" s="30">
-        <v>790</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>2806719</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="13">
-        <v>3</v>
-      </c>
-      <c r="D21" s="30">
-        <v>1190</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>2817870</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="13">
-        <v>4</v>
-      </c>
-      <c r="D22" s="30">
-        <v>755</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>2820870</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="13">
-        <v>12</v>
-      </c>
-      <c r="D23" s="30">
-        <v>198</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>2821686</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="13">
-        <v>25</v>
-      </c>
-      <c r="D24" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>2823409</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="13">
-        <v>25</v>
-      </c>
-      <c r="D25" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>2823411</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="13">
-        <v>12</v>
-      </c>
-      <c r="D26" s="30">
-        <v>198</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>2829475</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="13">
-        <v>10</v>
-      </c>
-      <c r="D27" s="30">
-        <v>295</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="13">
-        <v>25</v>
-      </c>
-      <c r="D28" s="30">
-        <v>94</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>2830114</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="13">
-        <v>12</v>
-      </c>
-      <c r="D29" s="30">
-        <v>219</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="13">
-        <v>12</v>
-      </c>
-      <c r="D30" s="30">
-        <v>273</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>2845956</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="13">
-        <v>4</v>
-      </c>
-      <c r="D31" s="30">
-        <v>652</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>2845959</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="13">
-        <v>12</v>
-      </c>
-      <c r="D32" s="30">
-        <v>161.5</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>2859185</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="13">
-        <v>4</v>
-      </c>
-      <c r="D33" s="30">
-        <v>790</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>2860119</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="13">
-        <v>4</v>
-      </c>
-      <c r="D34" s="30">
-        <v>790</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>2875891</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="13">
-        <v>25</v>
-      </c>
-      <c r="D35" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>2875892</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="13">
-        <v>12</v>
-      </c>
-      <c r="D36" s="30">
-        <v>198</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>2875893</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="13">
-        <v>8</v>
-      </c>
-      <c r="D37" s="30">
-        <v>388</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="13">
-        <v>4</v>
-      </c>
-      <c r="D38" s="30">
-        <v>557</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>2910278</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13">
-        <v>12</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="36">
-        <v>4</v>
-      </c>
-      <c r="D40" s="30">
-        <v>775</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>2918203</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="36">
-        <v>4</v>
-      </c>
-      <c r="D41" s="30">
-        <v>708</v>
-      </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37">
-        <v>2922764</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="36">
-        <v>4</v>
-      </c>
-      <c r="D42" s="30">
-        <v>790</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37">
-        <v>2922795</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="36">
-        <v>10</v>
-      </c>
-      <c r="D43" s="30">
-        <v>368</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="53">
-        <v>10</v>
-      </c>
-      <c r="D44" s="30">
-        <v>368</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52">
-        <v>2940804</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="53">
-        <v>3</v>
-      </c>
-      <c r="D45" s="30">
-        <v>1170</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="10">
-        <f>SUM(E14:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="16">
-        <f>SUM(F12:F45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="82"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-    </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47">
-        <v>2845959</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="47">
-        <v>2845955</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47">
-        <v>2728382</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34">
-        <v>2875891</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="E7:F7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="311" priority="46" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="47" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="48" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="308" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="35" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="36" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="305" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="8" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50 D52">
-    <cfRule type="cellIs" dxfId="302" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="17" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="299" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="14" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="296" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="11" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="293" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="5" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="290" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-    </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
-    </row>
-    <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="18" t="str">
-        <f>+'BON DE PREPARATION'!B9</f>
-        <v>08 07 2023</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="83" t="str">
-        <f>+'BON DE PREPARATION'!B8</f>
-        <v>ZOUBIRI AMINE</v>
-      </c>
-      <c r="F9" s="83"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>2644573</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13">
-        <v>10</v>
-      </c>
-      <c r="D12" s="30">
-        <v>174</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="7">
-        <f t="shared" ref="F12:F45" si="0">C12*D12*E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>2646698</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13">
-        <v>10</v>
-      </c>
-      <c r="D13" s="30">
-        <v>174</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>2682282</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="13">
-        <v>4</v>
-      </c>
-      <c r="D14" s="30">
-        <v>948</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>2728380</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13">
-        <v>6</v>
-      </c>
-      <c r="D15" s="30">
-        <v>153</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="13">
-        <v>12</v>
-      </c>
-      <c r="D16" s="30">
-        <v>85</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>2766729</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="13">
-        <v>10</v>
-      </c>
-      <c r="D17" s="30">
-        <v>279</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>2766835</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="13">
-        <v>4</v>
-      </c>
-      <c r="D18" s="30">
-        <v>690</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>2791901</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13">
-        <v>10</v>
-      </c>
-      <c r="D19" s="30">
-        <v>368</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>2806713</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="13">
-        <v>4</v>
-      </c>
-      <c r="D20" s="30">
-        <v>790</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>2806719</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="13">
-        <v>3</v>
-      </c>
-      <c r="D21" s="30">
-        <v>1190</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>2817870</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="13">
-        <v>4</v>
-      </c>
-      <c r="D22" s="30">
-        <v>755</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>2820870</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="13">
-        <v>12</v>
-      </c>
-      <c r="D23" s="30">
-        <v>198</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>2821686</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="13">
-        <v>25</v>
-      </c>
-      <c r="D24" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>2823409</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="13">
-        <v>25</v>
-      </c>
-      <c r="D25" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>2823411</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="13">
-        <v>12</v>
-      </c>
-      <c r="D26" s="30">
-        <v>198</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>2829475</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="13">
-        <v>10</v>
-      </c>
-      <c r="D27" s="30">
-        <v>295</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>2830113</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="13">
-        <v>25</v>
-      </c>
-      <c r="D28" s="30">
-        <v>94</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>2830114</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="13">
-        <v>12</v>
-      </c>
-      <c r="D29" s="30">
-        <v>219</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>2845955</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="13">
-        <v>12</v>
-      </c>
-      <c r="D30" s="30">
-        <v>273</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>2845956</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="13">
-        <v>4</v>
-      </c>
-      <c r="D31" s="30">
-        <v>652</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>2845959</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="13">
-        <v>12</v>
-      </c>
-      <c r="D32" s="30">
-        <v>161.5</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>2859185</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="13">
-        <v>4</v>
-      </c>
-      <c r="D33" s="30">
-        <v>790</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>2860119</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="13">
-        <v>4</v>
-      </c>
-      <c r="D34" s="30">
-        <v>790</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>2875891</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="13">
-        <v>25</v>
-      </c>
-      <c r="D35" s="30">
-        <v>83.5</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>2875892</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="13">
-        <v>12</v>
-      </c>
-      <c r="D36" s="30">
-        <v>198</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>2875893</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="13">
-        <v>8</v>
-      </c>
-      <c r="D37" s="30">
-        <v>388</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="13">
-        <v>4</v>
-      </c>
-      <c r="D38" s="30">
-        <v>557</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>2910278</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13">
-        <v>12</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2917788</v>
       </c>

--- a/SWS.xlsx
+++ b/SWS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Nouveau dossier (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BE6535-A349-40D5-8F63-C6BC3E5C790F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6FD9B5-09BE-444E-876F-5DAF027EF1DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="66">
   <si>
     <t>Code IDH</t>
   </si>
@@ -249,9 +249,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -876,9 +876,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -892,14 +892,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -910,11 +910,11 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -953,12 +953,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -976,6 +1014,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,6 +1061,12 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,2318 +1076,12 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="579">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="297">
     <dxf>
       <fill>
         <patternFill>
@@ -5987,10 +3737,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:D56"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,45 +3755,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -6839,10 +4589,10 @@
     </row>
     <row r="46" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E12:E45)</f>
         <v>0</v>
@@ -6857,12 +4607,12 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -6918,12 +4668,12 @@
     </row>
     <row r="53" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22">
         <f>+'12'!D53+'5'!D53++'8'!D53+'2'!D53+'7'!D53+'6'!D53+'4'!D53+'9'!D53+'1'!D53+'10'!D53+'3'!D53+'11'!D53+'13'!D53+'14'!D53+'15'!D53+'16'!D53+'17'!D53+'18'!D53+'19'!D53</f>
         <v>0</v>
@@ -6931,12 +4681,12 @@
     </row>
     <row r="54" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22">
         <f>+'12'!D54+'5'!D54++'8'!D54+'2'!D54+'7'!D54+'6'!D54+'4'!D54+'9'!D54+'1'!D54+'10'!D54+'3'!D54+'11'!D54+'13'!D54+'14'!D54+'15'!D54+'16'!D54+'17'!D54+'18'!D54+'19'!D54</f>
         <v>0</v>
@@ -6944,151 +4694,169 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="22">
         <f>+'12'!D55+'5'!D55++'8'!D55+'2'!D55+'7'!D55+'6'!D55+'4'!D55+'9'!D55+'1'!D55+'10'!D55+'3'!D55+'11'!D55+'13'!D55+'14'!D55+'15'!D55+'16'!D55+'17'!D55+'18'!D55+'19'!D55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2922764</v>
+        <v>2918203</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="22">
         <f>+'12'!D56+'5'!D56++'8'!D56+'2'!D56+'7'!D56+'6'!D56+'4'!D56+'9'!D56+'1'!D56+'10'!D56+'3'!D56+'11'!D56+'13'!D56+'14'!D56+'15'!D56+'16'!D56+'17'!D56+'18'!D56+'19'!D56</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="56" t="s">
+    <row r="57" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="26">
+        <v>2922764</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22">
+        <f>+'12'!D57+'5'!D57++'8'!D57+'2'!D57+'7'!D57+'6'!D57+'4'!D57+'9'!D57+'1'!D57+'10'!D57+'3'!D57+'11'!D57+'13'!D57+'14'!D57+'15'!D57+'16'!D57+'17'!D57+'18'!D57+'19'!D57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="33"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="50"/>
+    </row>
+    <row r="59" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="59" t="s">
+      <c r="B59" s="52"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E58" s="60" t="s">
+      <c r="E59" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="61" t="s">
+      <c r="F59" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="G58" s="62"/>
-    </row>
-    <row r="59" spans="1:7" s="1" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="56" t="s">
+      <c r="G59" s="62"/>
+    </row>
+    <row r="60" spans="1:7" s="1" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="57"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="67"/>
-    </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="56" t="s">
+      <c r="B61" s="52"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="64"/>
+    </row>
+    <row r="62" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="57"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
-    </row>
-    <row r="62" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="56" t="s">
+      <c r="B62" s="52"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="77"/>
+    </row>
+    <row r="63" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="71"/>
-    </row>
-    <row r="63" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="56" t="s">
+      <c r="B63" s="52"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="77"/>
+    </row>
+    <row r="64" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="78"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:G64"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F61:G61"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="F61:G61"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="F62:G62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="F63:G63"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="578" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="295" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="575" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="293" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="292" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D56">
-    <cfRule type="cellIs" dxfId="572" priority="13" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D58">
+    <cfRule type="cellIs" dxfId="290" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="289" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D45">
-    <cfRule type="cellIs" dxfId="569" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="287" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="286" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="285" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7102,10 +4870,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7119,45 +4887,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -7165,8 +4933,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7185,11 +4953,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -7859,10 +5627,10 @@
     </row>
     <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -7877,12 +5645,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -7926,44 +5694,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -7971,71 +5751,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="374" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="371" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="356" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="353" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="77" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="152" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8046,10 +5814,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8063,45 +5831,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -8109,8 +5877,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8129,11 +5897,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -8803,10 +6571,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -8821,12 +6589,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -8870,44 +6638,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -8915,71 +6695,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="350" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="347" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="332" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="329" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="80" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="137" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8990,10 +6758,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9007,45 +6775,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -9053,8 +6821,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -9073,11 +6841,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -9747,10 +7515,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -9765,12 +7533,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -9814,44 +7582,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -9859,71 +7639,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="326" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="323" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="308" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="305" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="122" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9937,10 +7705,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9954,45 +7722,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -10018,11 +7786,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -10692,10 +8460,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -10710,12 +8478,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -10759,115 +8527,115 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="302" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="299" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="284" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="281" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="86" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="107" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10878,10 +8646,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10895,45 +8663,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -10941,8 +8709,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -10961,11 +8729,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -11635,10 +9403,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -11653,12 +9421,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -11702,44 +9470,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -11747,71 +9527,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="278" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="275" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="260" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="257" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="89" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11822,10 +9590,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11839,45 +9607,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -11885,8 +9653,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -11905,11 +9673,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -12579,10 +10347,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -12597,12 +10365,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -12646,44 +10414,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -12691,71 +10471,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="254" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="251" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="236" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="233" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="92" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12766,10 +10534,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12783,45 +10551,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -12829,8 +10597,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -12849,11 +10617,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -13523,10 +11291,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -13541,12 +11309,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -13590,44 +11358,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -13635,71 +11415,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="230" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="227" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="212" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="209" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="95" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13710,10 +11478,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13727,45 +11495,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -13773,8 +11541,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -13793,11 +11561,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -14467,10 +12235,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -14485,12 +12253,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -14534,44 +12302,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -14579,71 +12359,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="206" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="203" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="188" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="185" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14654,10 +12422,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14671,45 +12439,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -14717,8 +12485,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -14737,11 +12505,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -15411,10 +13179,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -15429,12 +13197,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -15478,44 +13246,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -15523,71 +13303,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="182" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="179" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="164" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="161" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="101" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15598,10 +13366,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15615,45 +13383,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -15661,8 +13429,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -15681,11 +13449,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -16355,10 +14123,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -16373,12 +14141,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -16422,44 +14190,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -16467,71 +14247,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="158" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="155" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="140" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="137" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="104" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16545,10 +14313,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:D56"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16562,45 +14330,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -16608,8 +14376,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -16628,11 +14396,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -17302,10 +15070,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -17320,12 +15088,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -17369,44 +15137,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -17414,60 +15194,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="566" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="284" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="283" priority="44" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="282" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="563" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="280" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="279" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="548" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="278" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="277" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="276" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="545" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="275" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="274" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="273" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D56">
-    <cfRule type="cellIs" dxfId="110" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="272" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="271" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17478,10 +15257,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17495,45 +15274,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -17541,8 +15320,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -17558,11 +15337,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -18232,10 +16011,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -18250,12 +16029,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -18299,44 +16078,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -18344,71 +16135,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="134" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="131" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="116" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="113" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="107" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18422,10 +16201,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18439,45 +16218,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -18485,8 +16264,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -18505,11 +16284,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -19179,10 +16958,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -19197,12 +16976,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -19246,44 +17025,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -19291,71 +17082,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="542" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="269" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="268" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="267" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="539" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="266" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="265" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="264" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="524" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="263" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="262" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="521" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="259" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="257" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="256" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="255" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19369,10 +17148,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19386,45 +17165,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -19432,8 +17211,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -19452,11 +17231,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -20126,10 +17905,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -20144,12 +17923,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -20193,44 +17972,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -20238,71 +18029,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="518" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="254" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="253" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="515" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="251" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="500" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="248" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="497" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="244" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="242" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="241" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20316,10 +18095,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20333,45 +18112,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -20379,8 +18158,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -20399,11 +18178,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -21073,10 +18852,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -21091,12 +18870,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -21140,44 +18919,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -21185,71 +18976,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="494" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="239" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="238" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="491" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="235" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="476" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="232" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="231" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="473" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="229" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="62" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="227" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="226" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21263,10 +19042,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21280,45 +19059,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -21326,8 +19105,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -21346,11 +19125,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -22020,10 +19799,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -22038,12 +19817,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -22087,44 +19866,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -22132,71 +19923,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="470" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="224" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="223" priority="59" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="467" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="221" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="220" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="452" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="217" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="449" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="215" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="214" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="213" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="65" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="212" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="211" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22210,10 +19989,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22227,45 +20006,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -22291,11 +20070,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="54" t="str">
+      <c r="E9" s="80" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="80"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
@@ -22970,10 +20749,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -22988,12 +20767,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -23037,115 +20816,115 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="446" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="207" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="443" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="205" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="428" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="202" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="425" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="68" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="197" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="196" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23159,10 +20938,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23176,45 +20955,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -23222,8 +21001,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -23242,11 +21021,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -23916,10 +21695,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -23934,12 +21713,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -23983,44 +21762,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -24028,71 +21819,59 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="422" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="55" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="56" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="419" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="44" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="404" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="401" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="71" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="182" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="181" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24106,10 +21885,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24123,45 +21902,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
@@ -24169,8 +21948,8 @@
       </c>
       <c r="B7" s="16"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -24189,11 +21968,11 @@
       <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="52" t="str">
+      <c r="E9" s="78" t="str">
         <f>+'BON DE PREPARATION'!B8</f>
         <v>ZOUBIRI AMINE</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -24863,10 +22642,10 @@
     </row>
     <row r="46" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="51"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="10">
         <f>SUM(E14:E45)</f>
         <v>0</v>
@@ -24881,12 +22660,12 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -24930,44 +22709,56 @@
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2876884</v>
+        <v>2830113</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
+        <v>2876884</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="26">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
+      <c r="C56" s="2"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E9:F9"/>
@@ -24975,71 +22766,59 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="398" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="395" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="380" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="377" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D55">
-    <cfRule type="cellIs" dxfId="74" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D49:D57">
+    <cfRule type="cellIs" dxfId="167" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWS.xlsx
+++ b/SWS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Nouveau dossier (3)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\ARCHIVE\Nouveau dossier (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6FD9B5-09BE-444E-876F-5DAF027EF1DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F397DE3C-D4E7-4B25-A6C1-593BB8DCAE9C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="67">
   <si>
     <t>Code IDH</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>LE CHAT power gel 4L</t>
+  </si>
+  <si>
+    <t>Le Chat HS 300 gr</t>
   </si>
 </sst>
 </file>
@@ -3737,10 +3740,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4629,10 +4632,10 @@
     </row>
     <row r="50" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22">
@@ -4642,10 +4645,10 @@
     </row>
     <row r="51" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22">
@@ -4655,10 +4658,10 @@
     </row>
     <row r="52" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22">
@@ -4668,10 +4671,10 @@
     </row>
     <row r="53" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22">
@@ -4681,10 +4684,10 @@
     </row>
     <row r="54" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22">
@@ -4694,10 +4697,10 @@
     </row>
     <row r="55" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22">
         <f>+'12'!D55+'5'!D55++'8'!D55+'2'!D55+'7'!D55+'6'!D55+'4'!D55+'9'!D55+'1'!D55+'10'!D55+'3'!D55+'11'!D55+'13'!D55+'14'!D55+'15'!D55+'16'!D55+'17'!D55+'18'!D55+'19'!D55</f>
@@ -4706,10 +4709,10 @@
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D56" s="22">
         <f>+'12'!D56+'5'!D56++'8'!D56+'2'!D56+'7'!D56+'6'!D56+'4'!D56+'9'!D56+'1'!D56+'10'!D56+'3'!D56+'11'!D56+'13'!D56+'14'!D56+'15'!D56+'16'!D56+'17'!D56+'18'!D56+'19'!D56</f>
@@ -4718,10 +4721,10 @@
     </row>
     <row r="57" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22">
@@ -4730,91 +4733,152 @@
       </c>
     </row>
     <row r="58" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="33"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="50"/>
-    </row>
-    <row r="59" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="G59" s="62"/>
-    </row>
-    <row r="60" spans="1:7" s="1" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="52"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="64"/>
-    </row>
-    <row r="62" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="52"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="77"/>
-    </row>
-    <row r="63" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="77"/>
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="22">
+        <f>+'12'!D58+'5'!D58++'8'!D58+'2'!D58+'7'!D58+'6'!D58+'4'!D58+'9'!D58+'1'!D58+'10'!D58+'3'!D58+'11'!D58+'13'!D58+'14'!D58+'15'!D58+'16'!D58+'17'!D58+'18'!D58+'19'!D58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="22">
+        <f>+'12'!D59+'5'!D59++'8'!D59+'2'!D59+'7'!D59+'6'!D59+'4'!D59+'9'!D59+'1'!D59+'10'!D59+'3'!D59+'11'!D59+'13'!D59+'14'!D59+'15'!D59+'16'!D59+'17'!D59+'18'!D59+'19'!D59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="22">
+        <f>+'12'!D60+'5'!D60++'8'!D60+'2'!D60+'7'!D60+'6'!D60+'4'!D60+'9'!D60+'1'!D60+'10'!D60+'3'!D60+'11'!D60+'13'!D60+'14'!D60+'15'!D60+'16'!D60+'17'!D60+'18'!D60+'19'!D60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="26"/>
+      <c r="D61" s="22">
+        <f>+'12'!D61+'5'!D61++'8'!D61+'2'!D61+'7'!D61+'6'!D61+'4'!D61+'9'!D61+'1'!D61+'10'!D61+'3'!D61+'11'!D61+'13'!D61+'14'!D61+'15'!D61+'16'!D61+'17'!D61+'18'!D61+'19'!D61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="26"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="22">
+        <f>+'12'!D62+'5'!D62++'8'!D62+'2'!D62+'7'!D62+'6'!D62+'4'!D62+'9'!D62+'1'!D62+'10'!D62+'3'!D62+'11'!D62+'13'!D62+'14'!D62+'15'!D62+'16'!D62+'17'!D62+'18'!D62+'19'!D62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="33"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="50"/>
     </row>
     <row r="64" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="52"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" s="62"/>
+    </row>
+    <row r="65" spans="1:7" s="1" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="52"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="64"/>
+    </row>
+    <row r="67" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="52"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="77"/>
+    </row>
+    <row r="68" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="52"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="77"/>
+    </row>
+    <row r="69" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="52"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="54"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="F69:G69"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F66:G66"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="F68:G68"/>
   </mergeCells>
   <conditionalFormatting sqref="D46">
     <cfRule type="cellIs" dxfId="296" priority="28" operator="greaterThan">
@@ -4838,7 +4902,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D58">
+  <conditionalFormatting sqref="D49:D63">
     <cfRule type="cellIs" dxfId="290" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4870,10 +4934,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5664,82 +5728,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5796,7 +5896,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="152" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5814,10 +5914,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6608,82 +6708,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6740,7 +6876,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="137" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -6758,10 +6894,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7552,82 +7688,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7684,7 +7856,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="122" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7705,10 +7877,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8497,82 +8669,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8628,7 +8836,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="107" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8646,10 +8854,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9440,82 +9648,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9572,7 +9816,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -9590,10 +9834,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10384,82 +10628,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10516,7 +10796,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="77" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -10534,10 +10814,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11328,82 +11608,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11460,7 +11776,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="62" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -11478,10 +11794,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12272,82 +12588,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12404,7 +12756,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -12422,10 +12774,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13216,82 +13568,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13348,7 +13736,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13366,10 +13754,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14160,82 +14548,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14292,7 +14716,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -14313,10 +14737,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15107,82 +15531,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15239,7 +15699,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="272" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -15257,10 +15717,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16048,82 +16508,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16180,7 +16676,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16201,10 +16697,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16995,82 +17491,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17127,7 +17659,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="257" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -17148,10 +17680,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17942,82 +18474,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -18074,7 +18642,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="242" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18095,10 +18663,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18889,82 +19457,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19021,7 +19625,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="227" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19042,10 +19646,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19836,82 +20440,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19968,7 +20608,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="212" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19989,10 +20629,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20786,82 +21426,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -20917,7 +21593,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="197" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -20938,10 +21614,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21732,82 +22408,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21864,7 +22576,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="182" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21885,10 +22597,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22679,82 +23391,118 @@
     </row>
     <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>2845955</v>
+        <v>2728382</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <v>2728382</v>
+        <v>2875891</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2875891</v>
+        <v>2830113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>2830113</v>
+        <v>2876884</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2876884</v>
+        <v>2917788</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="5">
-        <v>2917788</v>
+        <v>2918203</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="26">
-        <v>2918203</v>
+        <v>2922764</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="22"/>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
-        <v>2922764</v>
+        <v>2823409</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>2823411</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>2766729</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26">
+        <v>2875893</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
+        <v>2910278</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -22811,7 +23559,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D57">
+  <conditionalFormatting sqref="D49:D61">
     <cfRule type="cellIs" dxfId="167" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/SWS.xlsx
+++ b/SWS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\ARCHIVE\Nouveau dossier (3)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F397DE3C-D4E7-4B25-A6C1-593BB8DCAE9C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AB9D0E-99C2-4DD7-97C1-3836518E5CA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" firstSheet="2" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="67">
   <si>
     <t>Code IDH</t>
   </si>
@@ -252,9 +252,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -879,9 +879,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -895,14 +895,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -913,11 +913,11 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -956,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1079,492 +1079,16 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="297">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="237">
     <dxf>
       <fill>
         <patternFill>
@@ -3740,10 +3264,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:B61"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2806713</v>
       </c>
@@ -4040,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2806719</v>
       </c>
@@ -4062,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2817870</v>
       </c>
@@ -4183,7 +3707,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="14">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14">
         <f>+'1'!E27+'2'!E27+'3'!E27+'4'!E27+'5'!E27+'6'!E27+'7'!E27+'8'!E27+'9'!E27+'10'!E27+'11'!E27+'12'!E27+'13'!E27+'14'!E27+'15'!E27+'16'!E27+'17'!E27+'18'!E27+'19'!E27</f>
@@ -4249,7 +3773,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="14">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14">
         <f>+'1'!E30+'2'!E30+'3'!E30+'4'!E30+'5'!E30+'6'!E30+'7'!E30+'8'!E30+'9'!E30+'10'!E30+'11'!E30+'12'!E30+'13'!E30+'14'!E30+'15'!E30+'16'!E30+'17'!E30+'18'!E30+'19'!E30</f>
@@ -4293,7 +3817,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="14">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14">
         <f>+'1'!E32+'2'!E32+'3'!E32+'4'!E32+'5'!E32+'6'!E32+'7'!E32+'8'!E32+'9'!E32+'10'!E32+'11'!E32+'12'!E32+'13'!E32+'14'!E32+'15'!E32+'16'!E32+'17'!E32+'18'!E32+'19'!E32</f>
@@ -4447,7 +3971,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="14">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14">
         <f>+'1'!E39+'2'!E39+'3'!E39+'4'!E39+'5'!E39+'6'!E39+'7'!E39+'8'!E39+'9'!E39+'10'!E39+'11'!E39+'12'!E39+'13'!E39+'14'!E39+'15'!E39+'16'!E39+'17'!E39+'18'!E39+'19'!E39</f>
@@ -4656,27 +4180,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <v>2830113</v>
+        <v>2875892</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="29"/>
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
       <c r="D52" s="22">
         <f>+'12'!D52+'5'!D52++'8'!D52+'2'!D52+'7'!D52+'6'!D52+'4'!D52+'9'!D52+'1'!D52+'10'!D52+'3'!D52+'11'!D52+'13'!D52+'14'!D52+'15'!D52+'16'!D52+'17'!D52+'18'!D52+'19'!D52</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="A53" s="23">
+        <v>2830113</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="29"/>
       <c r="D53" s="22">
         <f>+'12'!D53+'5'!D53++'8'!D53+'2'!D53+'7'!D53+'6'!D53+'4'!D53+'9'!D53+'1'!D53+'10'!D53+'3'!D53+'11'!D53+'13'!D53+'14'!D53+'15'!D53+'16'!D53+'17'!D53+'18'!D53+'19'!D53</f>
         <v>0</v>
@@ -4684,10 +4208,10 @@
     </row>
     <row r="54" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22">
@@ -4695,38 +4219,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
       <c r="D55" s="22">
         <f>+'12'!D55+'5'!D55++'8'!D55+'2'!D55+'7'!D55+'6'!D55+'4'!D55+'9'!D55+'1'!D55+'10'!D55+'3'!D55+'11'!D55+'13'!D55+'14'!D55+'15'!D55+'16'!D55+'17'!D55+'18'!D55+'19'!D55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
-        <v>2922764</v>
+    <row r="56" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
+        <v>2918203</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D56" s="22">
         <f>+'12'!D56+'5'!D56++'8'!D56+'2'!D56+'7'!D56+'6'!D56+'4'!D56+'9'!D56+'1'!D56+'10'!D56+'3'!D56+'11'!D56+'13'!D56+'14'!D56+'15'!D56+'16'!D56+'17'!D56+'18'!D56+'19'!D56</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="26">
-        <v>2823409</v>
+        <v>2922764</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+        <v>59</v>
+      </c>
       <c r="D57" s="22">
         <f>+'12'!D57+'5'!D57++'8'!D57+'2'!D57+'7'!D57+'6'!D57+'4'!D57+'9'!D57+'1'!D57+'10'!D57+'3'!D57+'11'!D57+'13'!D57+'14'!D57+'15'!D57+'16'!D57+'17'!D57+'18'!D57+'19'!D57</f>
         <v>0</v>
@@ -4734,10 +4258,10 @@
     </row>
     <row r="58" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C58" s="26"/>
       <c r="D58" s="22">
@@ -4747,10 +4271,10 @@
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="22">
@@ -4760,10 +4284,10 @@
     </row>
     <row r="60" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="22">
@@ -4772,12 +4296,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="A61" s="26"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="26"/>
       <c r="D61" s="22">
         <f>+'12'!D61+'5'!D61++'8'!D61+'2'!D61+'7'!D61+'6'!D61+'4'!D61+'9'!D61+'1'!D61+'10'!D61+'3'!D61+'11'!D61+'13'!D61+'14'!D61+'15'!D61+'16'!D61+'17'!D61+'18'!D61+'19'!D61</f>
@@ -4785,142 +4305,122 @@
       </c>
     </row>
     <row r="62" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="26"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="22">
-        <f>+'12'!D62+'5'!D62++'8'!D62+'2'!D62+'7'!D62+'6'!D62+'4'!D62+'9'!D62+'1'!D62+'10'!D62+'3'!D62+'11'!D62+'13'!D62+'14'!D62+'15'!D62+'16'!D62+'17'!D62+'18'!D62+'19'!D62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="33"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="50"/>
-    </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="51" t="s">
+      <c r="A62" s="33"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="50"/>
+    </row>
+    <row r="63" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="52"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="37" t="s">
+      <c r="B63" s="52"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E64" s="38" t="s">
+      <c r="E63" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="61" t="s">
+      <c r="F63" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="62"/>
-    </row>
-    <row r="65" spans="1:7" s="1" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="G63" s="62"/>
+    </row>
+    <row r="64" spans="1:7" s="1" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="65" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="52"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="64"/>
+    </row>
     <row r="66" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="51" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B66" s="52"/>
       <c r="C66" s="39"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="64"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="77"/>
     </row>
     <row r="67" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="51" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B67" s="52"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="43"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="76"/>
       <c r="G67" s="77"/>
     </row>
     <row r="68" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="51" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B68" s="52"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="77"/>
-    </row>
-    <row r="69" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="54"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="F68:G68"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F65:G65"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="F66:G66"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="F67:G67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="F68:G68"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="296" priority="28" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D62">
+    <cfRule type="cellIs" dxfId="236" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="235" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="293" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="232" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D63">
-    <cfRule type="cellIs" dxfId="290" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="14" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="231" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D45">
-    <cfRule type="cellIs" dxfId="287" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="229" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4934,10 +4434,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5339,7 +4839,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -5396,7 +4896,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -5434,7 +4934,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -5567,7 +5067,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -5746,100 +5246,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5852,58 +5343,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="164" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="131" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="161" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="158" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="155" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="152" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5914,10 +5394,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6319,7 +5799,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -6376,7 +5856,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -6414,7 +5894,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -6547,7 +6027,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -6726,100 +6206,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6832,58 +6303,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="149" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="119" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="146" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="143" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="140" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="137" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6894,10 +6354,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7299,7 +6759,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -7356,7 +6816,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -7394,7 +6854,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -7527,7 +6987,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -7706,100 +7166,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7812,58 +7263,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="134" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="107" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="131" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="128" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="125" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="122" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7877,10 +7317,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8280,7 +7720,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -8337,7 +7777,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -8375,7 +7815,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -8508,7 +7948,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -8687,100 +8127,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8792,58 +8223,47 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="119" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="95" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="116" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="113" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="110" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="107" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8854,10 +8274,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9259,7 +8679,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -9316,7 +8736,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -9354,7 +8774,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -9487,7 +8907,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -9666,100 +9086,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9772,58 +9183,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="104" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="83" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="101" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="98" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="95" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9834,10 +9234,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10239,7 +9639,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -10296,7 +9696,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -10334,7 +9734,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -10467,7 +9867,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -10646,100 +10046,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10752,58 +10143,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="89" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="71" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="86" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="83" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="80" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10814,10 +10194,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11219,7 +10599,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -11276,7 +10656,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -11314,7 +10694,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -11447,7 +10827,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -11626,100 +11006,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11732,58 +11103,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="74" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="59" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="71" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11794,10 +11154,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12199,7 +11559,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -12256,7 +11616,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -12294,7 +11654,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -12427,7 +11787,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -12606,100 +11966,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12712,58 +12063,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="59" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="56" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="50" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12774,10 +12114,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13179,7 +12519,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -13236,7 +12576,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -13274,7 +12614,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -13407,7 +12747,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -13586,100 +12926,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13692,58 +13023,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="35" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="38" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13754,10 +13074,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14159,7 +13479,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -14216,7 +13536,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -14254,7 +13574,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -14387,7 +13707,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -14566,100 +13886,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14672,58 +13983,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="29" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="23" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14737,10 +14037,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15142,7 +14442,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -15199,7 +14499,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -15237,7 +14537,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -15370,7 +14670,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -15549,100 +14849,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15655,58 +14946,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="284" priority="43" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="227" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="226" priority="44" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="281" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="224" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="223" priority="32" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="278" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="221" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="220" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="275" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="217" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="272" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15717,10 +14997,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16119,7 +15399,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -16176,7 +15456,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -16214,7 +15494,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -16347,7 +15627,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -16526,100 +15806,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16632,58 +15903,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="14" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="11" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="11" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16697,10 +15957,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17102,7 +16362,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -17159,7 +16419,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -17197,7 +16457,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -17330,7 +16590,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -17509,100 +16769,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17615,58 +16866,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="269" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="215" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="214" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="213" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="266" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="212" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="211" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="263" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="207" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="260" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="205" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="257" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17680,10 +16920,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18085,7 +17325,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -18142,7 +17382,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -18180,7 +17420,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -18313,7 +17553,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -18492,100 +17732,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -18598,58 +17829,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="254" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="203" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="202" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="251" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="248" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="196" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="245" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="242" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18663,10 +17883,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19068,7 +18288,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -19125,7 +18345,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -19163,7 +18383,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -19296,7 +18516,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -19475,100 +18695,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19581,58 +18792,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="239" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="191" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="236" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="233" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="230" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="181" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="227" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19646,10 +18846,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20051,7 +19251,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -20108,7 +19308,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -20146,7 +19346,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -20279,7 +19479,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -20458,100 +19658,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -20564,58 +19755,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="224" priority="58" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="179" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="59" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="221" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="218" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="215" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="212" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20629,10 +19809,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21037,7 +20217,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -21094,7 +20274,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -21132,7 +20312,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -21265,7 +20445,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -21444,100 +20624,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -21549,58 +20720,47 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="209" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="167" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="206" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="203" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="200" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="197" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21614,10 +20774,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22019,7 +21179,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -22076,7 +21236,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -22114,7 +21274,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -22247,7 +21407,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -22426,100 +21586,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -22532,58 +21683,47 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="194" priority="55" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="155" priority="55" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="56" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="191" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="44" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="188" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="185" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="182" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22597,10 +21737,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D61"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23002,7 +22142,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="19">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="7">
@@ -23059,7 +22199,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="19">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
@@ -23097,7 +22237,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19">
-        <v>161.5</v>
+        <v>164</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
@@ -23230,7 +22370,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -23409,100 +22549,91 @@
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
     </row>
-    <row r="52" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:4" s="82" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>2875892</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="81"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>2830113</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>55</v>
+        <v>2876884</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5">
         <v>2918203</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26">
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="26">
         <v>2922764</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
-        <v>2823409</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
-        <v>2823411</v>
+        <v>2766729</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
-        <v>2766729</v>
+        <v>2875893</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="26">
-        <v>2875893</v>
+        <v>2910278</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>2910278</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -23515,58 +22646,47 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="179" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D46 D49:D60">
+    <cfRule type="cellIs" dxfId="143" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E45">
-    <cfRule type="cellIs" dxfId="176" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="173" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="170" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D61">
-    <cfRule type="cellIs" dxfId="167" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="2" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWS.xlsx
+++ b/SWS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Desktop\Nouveau dossier (4)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB20D7-CF42-47F3-93A8-2CF913ACE669}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E567D324-E5A2-4C91-B98E-DC2DFAC5552D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="65">
   <si>
     <t>Code IDH</t>
   </si>
@@ -1082,31 +1082,7 @@
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="297">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="294">
     <dxf>
       <fill>
         <patternFill>
@@ -3740,8 +3716,8 @@
   </sheetPr>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4439,7 +4415,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="14">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14">
         <f>+'1'!E39+'2'!E39+'3'!E39+'4'!E39+'5'!E39+'6'!E39+'7'!E39+'8'!E39+'9'!E39+'10'!E39+'11'!E39+'12'!E39+'13'!E39+'14'!E39+'15'!E39+'16'!E39+'17'!E39+'18'!E39+'19'!E39</f>
@@ -4786,8 +4762,12 @@
       </c>
     </row>
     <row r="62" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="26"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C62" s="26"/>
       <c r="D62" s="22">
         <f>+'12'!D62+'5'!D62++'8'!D62+'2'!D62+'7'!D62+'6'!D62+'4'!D62+'9'!D62+'1'!D62+'10'!D62+'3'!D62+'11'!D62+'13'!D62+'14'!D62+'15'!D62+'16'!D62+'17'!D62+'18'!D62+'19'!D62</f>
@@ -4882,35 +4862,35 @@
     <mergeCell ref="F68:G68"/>
   </mergeCells>
   <conditionalFormatting sqref="D47 D50:D63">
-    <cfRule type="cellIs" dxfId="296" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="293" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="292" priority="29" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="293" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="290" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="289" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D46">
-    <cfRule type="cellIs" dxfId="290" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="287" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="286" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="285" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4924,10 +4904,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5557,7 +5537,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -5832,7 +5812,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -5840,6 +5820,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5852,58 +5841,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="167" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="164" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="164" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="161" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="158" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="155" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5914,10 +5903,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6547,7 +6536,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -6822,7 +6811,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -6830,6 +6819,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6842,58 +6840,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="152" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="149" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="149" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="146" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="143" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="140" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6904,10 +6902,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7537,7 +7535,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -7812,7 +7810,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -7820,6 +7818,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7832,58 +7839,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="137" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="134" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="134" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="131" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="128" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="125" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7897,10 +7904,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8528,7 +8535,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -8803,7 +8810,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -8811,6 +8818,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8822,58 +8838,58 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="122" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="119" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="119" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="116" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="113" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="110" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8884,10 +8900,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9517,7 +9533,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -9792,7 +9808,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -9800,6 +9816,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9812,58 +9837,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="107" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="104" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="104" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="101" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="98" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9874,10 +9899,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10507,7 +10532,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -10782,7 +10807,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -10790,6 +10815,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10802,58 +10836,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="92" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="89" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="89" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="86" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="83" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10864,10 +10898,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11497,7 +11531,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -11772,7 +11806,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -11780,6 +11814,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11792,58 +11835,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="77" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="74" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="74" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="71" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11854,10 +11897,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12487,7 +12530,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -12762,7 +12805,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -12770,6 +12813,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12782,58 +12834,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="62" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="59" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="59" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="56" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12844,10 +12896,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13477,7 +13529,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -13752,7 +13804,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -13760,6 +13812,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13772,58 +13833,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="44" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="41" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="38" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13834,10 +13895,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14467,7 +14528,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -14742,7 +14803,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -14750,6 +14811,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14762,58 +14832,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="32" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="29" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14827,10 +14897,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:D46"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15460,7 +15530,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -15735,7 +15805,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -15743,6 +15813,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15755,58 +15834,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="287" priority="46" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="284" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="283" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="282" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="284" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="280" priority="35" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="279" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="281" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="278" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="277" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="276" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="278" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="275" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="274" priority="11" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="273" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="275" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="272" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="271" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15817,10 +15896,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16447,7 +16526,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -16722,7 +16801,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -16730,6 +16809,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16742,58 +16830,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="17" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="14" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="14" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16807,10 +16895,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17440,7 +17528,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -17715,7 +17803,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -17723,6 +17811,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17735,58 +17832,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="272" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="269" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="268" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="267" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="269" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="266" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="265" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="264" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="266" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="263" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="262" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="263" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="259" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="260" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="257" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="256" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="255" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17800,10 +17897,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18433,7 +18530,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -18708,7 +18805,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -18716,6 +18813,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -18728,58 +18834,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="257" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="254" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="253" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="254" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="251" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="251" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="248" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="248" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="244" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="245" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="241" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18793,10 +18899,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19426,7 +19532,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -19701,7 +19807,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -19709,6 +19815,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19721,58 +19836,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="242" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="239" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="238" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="239" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="235" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="236" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="232" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="231" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="233" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="229" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="230" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="227" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="226" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19786,10 +19901,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20419,7 +20534,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -20694,7 +20809,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -20702,6 +20817,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -20714,58 +20838,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="227" priority="61" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="224" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="223" priority="62" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="63" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="224" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="221" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="220" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="221" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="217" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="218" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="215" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="214" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="213" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="215" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="212" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="211" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20779,10 +20903,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21415,7 +21539,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -21690,7 +21814,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -21698,6 +21822,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -21709,58 +21842,58 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="212" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="209" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="207" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="209" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="205" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="206" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="202" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="203" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="200" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="196" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21774,10 +21907,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22407,7 +22540,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -22682,7 +22815,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -22690,6 +22823,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -22702,58 +22844,58 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="197" priority="58" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="194" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="59" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="194" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="47" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="191" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="188" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="185" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="181" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22767,10 +22909,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23400,7 +23542,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="19">
-        <v>127</v>
+        <v>121.5</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
@@ -23675,7 +23817,7 @@
       </c>
       <c r="D60" s="22"/>
     </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>2910278</v>
       </c>
@@ -23683,6 +23825,15 @@
         <v>28</v>
       </c>
       <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -23695,58 +23846,58 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D47 D50:D61">
-    <cfRule type="cellIs" dxfId="182" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D47 D50:D62">
+    <cfRule type="cellIs" dxfId="179" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E46">
-    <cfRule type="cellIs" dxfId="179" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="176" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="173" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="170" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWS.xlsx
+++ b/SWS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Desktop\Nouveau dossier (4)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C82E9E-222C-49FE-9344-4D6EC9C25FA3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D994D905-AED2-4579-8A84-2FCB8491D623}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="69">
   <si>
     <t>Code IDH</t>
   </si>
@@ -258,9 +258,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -885,7 +885,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -901,14 +901,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -919,11 +919,11 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -956,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4200,10 +4200,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -4879,7 +4879,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="14">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14">
         <f>+'1'!E38+'2'!E38+'3'!E38+'4'!E38+'5'!E38+'6'!E38+'7'!E38+'8'!E38+'9'!E38+'10'!E38+'11'!E38+'12'!E38+'13'!E38+'14'!E38+'15'!E38+'16'!E38+'17'!E38+'18'!E38+'19'!E38</f>
@@ -5067,24 +5067,24 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="14">
         <f>+'1'!E47+'2'!E47+'3'!E47+'4'!E47+'5'!E47+'6'!E47+'7'!E47+'8'!E47+'9'!E47+'10'!E47+'11'!E47+'12'!E47+'13'!E47+'14'!E47+'15'!E47+'16'!E47+'17'!E47+'18'!E47+'19'!E47</f>
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -5106,56 +5106,65 @@
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="14">
+        <f>+'1'!E49+'2'!E49+'3'!E49+'4'!E49+'5'!E49+'6'!E49+'7'!E49+'8'!E49+'9'!E49+'10'!E49+'11'!E49+'12'!E49+'13'!E49+'14'!E49+'15'!E49+'16'!E49+'17'!E49+'18'!E49+'19'!E49</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20">
-        <f>+'12'!D52+'5'!D52++'8'!D52+'2'!D52+'7'!D52+'6'!D52+'4'!D52+'9'!D52+'1'!D52+'10'!D52+'3'!D52+'11'!D52+'13'!D52+'14'!D52+'15'!D52+'16'!D52+'17'!D52+'18'!D52+'19'!D52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20">
@@ -5164,11 +5173,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20">
@@ -5176,40 +5185,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21">
-        <v>2875892</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="49"/>
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
       <c r="D55" s="20">
         <f>+'12'!D55+'5'!D55++'8'!D55+'2'!D55+'7'!D55+'6'!D55+'4'!D55+'9'!D55+'1'!D55+'10'!D55+'3'!D55+'11'!D55+'13'!D55+'14'!D55+'15'!D55+'16'!D55+'17'!D55+'18'!D55+'19'!D55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21">
-        <v>2830113</v>
+        <v>2875892</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="27"/>
+        <v>25</v>
+      </c>
+      <c r="C56" s="49"/>
       <c r="D56" s="20">
         <f>+'12'!D56+'5'!D56++'8'!D56+'2'!D56+'7'!D56+'6'!D56+'4'!D56+'9'!D56+'1'!D56+'10'!D56+'3'!D56+'11'!D56+'13'!D56+'14'!D56+'15'!D56+'16'!D56+'17'!D56+'18'!D56+'19'!D56</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="A57" s="21">
+        <v>2830113</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="27"/>
       <c r="D57" s="20">
         <f>+'12'!D57+'5'!D57++'8'!D57+'2'!D57+'7'!D57+'6'!D57+'4'!D57+'9'!D57+'1'!D57+'10'!D57+'3'!D57+'11'!D57+'13'!D57+'14'!D57+'15'!D57+'16'!D57+'17'!D57+'18'!D57+'19'!D57</f>
         <v>0</v>
@@ -5217,10 +5226,10 @@
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20">
@@ -5228,38 +5237,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
-        <v>2918203</v>
+        <v>2917788</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
       <c r="D59" s="20">
         <f>+'12'!D59+'5'!D59++'8'!D59+'2'!D59+'7'!D59+'6'!D59+'4'!D59+'9'!D59+'1'!D59+'10'!D59+'3'!D59+'11'!D59+'13'!D59+'14'!D59+'15'!D59+'16'!D59+'17'!D59+'18'!D59+'19'!D59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
-        <v>2922764</v>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
+        <v>2918203</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D60" s="20">
         <f>+'12'!D60+'5'!D60++'8'!D60+'2'!D60+'7'!D60+'6'!D60+'4'!D60+'9'!D60+'1'!D60+'10'!D60+'3'!D60+'11'!D60+'13'!D60+'14'!D60+'15'!D60+'16'!D60+'17'!D60+'18'!D60+'19'!D60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="24">
-        <v>2766729</v>
+        <v>2922764</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="24"/>
+        <v>57</v>
+      </c>
       <c r="D61" s="20">
         <f>+'12'!D61+'5'!D61++'8'!D61+'2'!D61+'7'!D61+'6'!D61+'4'!D61+'9'!D61+'1'!D61+'10'!D61+'3'!D61+'11'!D61+'13'!D61+'14'!D61+'15'!D61+'16'!D61+'17'!D61+'18'!D61+'19'!D61</f>
         <v>0</v>
@@ -5267,10 +5276,10 @@
     </row>
     <row r="62" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="20">
@@ -5280,10 +5289,10 @@
     </row>
     <row r="63" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="24">
-        <v>2910278</v>
+        <v>2875893</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="20">
@@ -5292,11 +5301,11 @@
       </c>
     </row>
     <row r="64" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="5">
-        <v>2845956</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>20</v>
+      <c r="A64" s="24">
+        <v>2910278</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="20">
@@ -5305,93 +5314,106 @@
       </c>
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="31"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="48"/>
-    </row>
-    <row r="66" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="51" t="s">
+      <c r="A65" s="5">
+        <v>2845956</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="20">
+        <f>+'12'!D65+'5'!D65++'8'!D65+'2'!D65+'7'!D65+'6'!D65+'4'!D65+'9'!D65+'1'!D65+'10'!D65+'3'!D65+'11'!D65+'13'!D65+'14'!D65+'15'!D65+'16'!D65+'17'!D65+'18'!D65+'19'!D65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="31"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="48"/>
+    </row>
+    <row r="67" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="52"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="35" t="s">
+      <c r="B67" s="52"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E67" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F66" s="61" t="s">
+      <c r="F67" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="G66" s="62"/>
-    </row>
-    <row r="67" spans="1:7" s="1" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="68" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="52"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
-    </row>
+      <c r="G67" s="62"/>
+    </row>
+    <row r="68" spans="1:7" s="1" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="69" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="51" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B69" s="52"/>
       <c r="C69" s="37"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="77"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="64"/>
     </row>
     <row r="70" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="51" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B70" s="52"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="44"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="76"/>
       <c r="G70" s="77"/>
     </row>
     <row r="71" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="52"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="77"/>
+    </row>
+    <row r="72" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="52"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="54"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="F70:G70"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="F71:G71"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="F70:G70"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D65">
+  <conditionalFormatting sqref="D50 D53:D66">
     <cfRule type="cellIs" dxfId="353" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5402,7 +5424,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
+  <conditionalFormatting sqref="E12:E49">
     <cfRule type="cellIs" dxfId="350" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5413,7 +5435,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D46">
+  <conditionalFormatting sqref="D12:D47">
     <cfRule type="cellIs" dxfId="347" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5424,14 +5446,14 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="344" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="343" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="342" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5445,10 +5467,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5569,7 +5591,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -6059,7 +6081,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -6220,21 +6242,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -6253,166 +6275,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -6420,69 +6461,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="224" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="197" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="196" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="221" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="194" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="218" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="215" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="212" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="185" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="182" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="181" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6493,10 +6534,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6617,7 +6658,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -7107,7 +7148,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -7268,21 +7309,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -7301,166 +7342,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -7468,69 +7528,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="209" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="179" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="206" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="176" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="203" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="200" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="197" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="167" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="164" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7541,10 +7601,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7665,7 +7725,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -8155,7 +8215,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -8316,21 +8376,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -8349,166 +8409,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -8516,69 +8595,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="194" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="161" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="191" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="158" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="188" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="185" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="182" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="149" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="146" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8592,10 +8671,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8714,7 +8793,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -9204,7 +9283,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -9365,21 +9444,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -9398,235 +9477,254 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="179" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="143" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="176" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="140" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="173" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="170" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="167" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="131" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="128" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9637,10 +9735,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9761,7 +9859,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -10251,7 +10349,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -10412,21 +10510,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -10445,166 +10543,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -10612,69 +10729,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="164" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="125" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="161" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="122" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="158" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="155" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="152" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="113" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="110" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10685,10 +10802,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10809,7 +10926,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -11299,7 +11416,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -11460,21 +11577,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -11493,166 +11610,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -11660,69 +11796,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="149" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="107" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="146" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="104" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="143" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="140" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="137" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="95" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11733,10 +11869,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11857,7 +11993,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -12347,7 +12483,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -12508,21 +12644,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -12541,166 +12677,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -12708,69 +12863,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="134" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="89" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="131" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="86" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="128" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="125" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="122" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12781,10 +12936,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12905,7 +13060,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -13395,7 +13550,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -13556,21 +13711,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -13589,166 +13744,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -13756,69 +13930,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="119" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="71" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="116" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="68" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="113" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="110" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="107" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13829,10 +14003,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13953,7 +14127,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -14443,7 +14617,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -14604,21 +14778,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -14637,166 +14811,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -14804,69 +14997,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="104" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="101" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="50" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="98" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="95" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="92" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14877,10 +15070,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15001,7 +15194,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -15491,7 +15684,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -15652,21 +15845,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -15685,166 +15878,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -15852,69 +16064,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="89" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="35" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="86" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="83" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="80" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="77" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15928,10 +16140,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16052,7 +16264,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -16542,7 +16754,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -16703,21 +16915,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -16736,166 +16948,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -16903,69 +17134,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="344" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="341" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="340" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="339" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="341" priority="37" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="338" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="337" priority="38" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="336" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="338" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="335" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="334" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="333" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="335" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="332" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="331" priority="14" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="330" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="332" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="329" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="328" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="327" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="326" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="325" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16976,10 +17207,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17097,7 +17328,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -17587,7 +17818,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -17748,21 +17979,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -17781,166 +18012,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -17948,69 +18198,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="74" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="17" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="71" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="14" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="68" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="65" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="62" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18024,10 +18274,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18148,7 +18398,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -18638,7 +18888,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -18799,21 +19049,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -18832,166 +19082,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -18999,69 +19268,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="329" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="323" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="322" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="321" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="326" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="320" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="319" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="318" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="323" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="317" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="316" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="315" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="320" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="314" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="313" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="312" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="317" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="311" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="310" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="309" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="308" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="307" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="306" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19075,10 +19344,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19199,7 +19468,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -19689,7 +19958,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -19850,21 +20119,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -19883,166 +20152,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -20050,69 +20338,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="314" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="305" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="304" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="303" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="311" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="302" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="301" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="300" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="308" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="299" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="298" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="305" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="295" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="294" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="302" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="293" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="292" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="290" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="289" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20126,10 +20414,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20250,7 +20538,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -20740,7 +21028,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -20901,21 +21189,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -20934,166 +21222,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -21101,69 +21408,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="299" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="287" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="286" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="285" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="296" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="284" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="283" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="282" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="293" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="280" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="279" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="290" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="278" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="277" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="276" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="287" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="275" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="274" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="273" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="272" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="271" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="270" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21177,10 +21484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21301,7 +21608,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -21791,7 +22098,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -21952,21 +22259,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -21985,166 +22292,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -22152,69 +22478,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="284" priority="64" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="269" priority="64" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="268" priority="65" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="267" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="281" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="266" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="265" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="264" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="278" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="263" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="262" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="275" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="259" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="272" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="257" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="256" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="255" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="254" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="253" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22228,10 +22554,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22355,7 +22681,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -22845,7 +23171,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -23006,21 +23332,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -23039,235 +23365,254 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="269" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="251" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="266" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="248" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="263" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="244" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="260" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="241" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="257" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="239" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="238" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="236" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="235" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23281,10 +23626,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23405,7 +23750,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -23895,7 +24240,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -24056,21 +24401,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -24089,166 +24434,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -24256,69 +24620,69 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="254" priority="61" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="233" priority="61" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="232" priority="62" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="231" priority="63" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="251" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="230" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="229" priority="50" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="248" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="227" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="226" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="225" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="245" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="224" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="223" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="222" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="242" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="221" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="220" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="219" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="218" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="217" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24332,10 +24696,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24456,7 +24820,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F48" si="0">C12*D12*E12</f>
+        <f t="shared" ref="F12:F49" si="0">C12*D12*E12</f>
         <v>0</v>
       </c>
     </row>
@@ -24946,7 +25310,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
@@ -25107,21 +25471,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>65</v>
+      <c r="A47" s="31">
+        <v>2952095</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19">
-        <v>164</v>
+        <v>1170</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F47:F49" si="1">C47*D47*E47</f>
         <v>0</v>
       </c>
     </row>
@@ -25140,166 +25504,185 @@
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="74" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="19">
+        <v>164</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="10">
-        <f>SUM(E12:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="C50" s="75"/>
+      <c r="D50" s="10">
+        <f>SUM(E12:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="15">
-        <f>SUM(F12:F48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
+      <c r="F50" s="15">
+        <f>SUM(F12:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>2728382</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
-        <v>2875891</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>24</v>
+      <c r="A54" s="5">
+        <v>2728382</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <v>2875891</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>2875892</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="C56" s="49"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>2830113</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>2876884</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>2917788</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>54</v>
+        <v>2876884</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
+        <v>2917788</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="5">
         <v>2918203</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="24">
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="24">
         <v>2922764</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>2766729</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
-        <v>2875893</v>
+        <v>2766729</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
+        <v>2875893</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
         <v>2910278</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>2845956</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D65" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -25307,69 +25690,69 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D49 D52:D64">
-    <cfRule type="cellIs" dxfId="239" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="D50 D53:D65">
+    <cfRule type="cellIs" dxfId="215" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="214" priority="53" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="213" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E48">
-    <cfRule type="cellIs" dxfId="236" priority="40" operator="greaterThan">
+  <conditionalFormatting sqref="E12:E49">
+    <cfRule type="cellIs" dxfId="212" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="211" priority="41" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D43">
-    <cfRule type="cellIs" dxfId="233" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="209" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="207" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="230" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="205" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="227" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="cellIs" dxfId="203" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="202" priority="5" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="cellIs" dxfId="200" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="2" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SWS.xlsx
+++ b/SWS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Nouveau dossier (3)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE202DC-4596-4241-8AD9-43B1C550BA66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEB4D13-2FB5-4A95-9108-1514C6ED4F7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -4235,8 +4235,8 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -4340,7 +4340,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="14">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14">
         <f>+'6'!E12+'12'!E12+'8'!E12+'7'!E12+'2'!E12+'5'!E12+'4'!E12+'9'!E12+'1'!E12+'10'!E12+'3'!E12+'11'!E12+'13'!E12+'14'!E12+'15'!E12+'16'!E12+'17'!E12+'18'!E12+'19'!E12</f>
@@ -4362,7 +4362,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="14">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14">
         <f>+'6'!E13+'12'!E13+'8'!E13+'7'!E13+'2'!E13+'5'!E13+'4'!E13+'9'!E13+'1'!E13+'10'!E13+'3'!E13+'11'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13</f>
@@ -5286,7 +5286,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="14">
         <f>+'1'!E55+'2'!E55+'3'!E55+'4'!E55+'5'!E55+'6'!E55+'7'!E55+'8'!E55+'9'!E55+'10'!E55+'11'!E55+'12'!E55+'13'!E55+'14'!E55+'15'!E55+'16'!E55+'17'!E55+'18'!E55+'19'!E55</f>
@@ -5308,7 +5308,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="14">
         <f>+'1'!E56+'2'!E56+'3'!E56+'4'!E56+'5'!E56+'6'!E56+'7'!E56+'8'!E56+'9'!E56+'10'!E56+'11'!E56+'12'!E56+'13'!E56+'14'!E56+'15'!E56+'16'!E56+'17'!E56+'18'!E56+'19'!E56</f>
@@ -5701,7 +5701,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -5818,7 +5818,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -5837,7 +5837,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -6635,7 +6635,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -6654,7 +6654,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -6939,7 +6939,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -7056,7 +7056,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -7075,7 +7075,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -7873,7 +7873,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -7892,7 +7892,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -8177,7 +8177,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -8294,7 +8294,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -8313,7 +8313,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -9111,7 +9111,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -9130,7 +9130,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -9418,7 +9418,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9524,7 +9524,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -9533,7 +9533,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -9552,7 +9552,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -10350,7 +10350,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -10369,7 +10369,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -10653,7 +10653,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10761,7 +10761,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -10770,7 +10770,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -10789,7 +10789,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -11587,7 +11587,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -11606,7 +11606,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -11891,7 +11891,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11999,7 +11999,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -12008,7 +12008,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -12027,7 +12027,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -12825,7 +12825,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -12844,7 +12844,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -13129,7 +13129,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13237,7 +13237,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -13246,7 +13246,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -13265,7 +13265,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -14063,7 +14063,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -14082,7 +14082,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -14367,7 +14367,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14475,7 +14475,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -14484,7 +14484,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -14503,7 +14503,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -15301,7 +15301,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -15320,7 +15320,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -15605,7 +15605,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15713,7 +15713,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -15722,7 +15722,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -15741,7 +15741,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -16539,7 +16539,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -16558,7 +16558,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -16843,7 +16843,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16951,7 +16951,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -16960,7 +16960,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -16979,7 +16979,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -17777,7 +17777,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -17796,7 +17796,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -18084,7 +18084,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18192,7 +18192,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -18201,7 +18201,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -18220,7 +18220,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -19018,7 +19018,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -19037,7 +19037,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -19322,7 +19322,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19427,7 +19427,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -19436,7 +19436,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -19455,7 +19455,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -20253,7 +20253,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -20272,7 +20272,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -20560,7 +20560,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20668,7 +20668,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -20677,7 +20677,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -20696,7 +20696,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -21494,7 +21494,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -21513,7 +21513,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -21801,7 +21801,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21909,7 +21909,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -21918,7 +21918,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -21937,7 +21937,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -22735,7 +22735,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -22754,7 +22754,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -23041,8 +23041,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23150,7 +23150,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -23159,7 +23159,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -23178,7 +23178,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -23976,7 +23976,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -23995,7 +23995,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -24283,7 +24283,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24391,7 +24391,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -24400,7 +24400,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -24419,7 +24419,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -25217,7 +25217,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -25236,7 +25236,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -25524,7 +25524,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25635,7 +25635,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -25644,7 +25644,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -25663,7 +25663,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -26461,7 +26461,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -26480,7 +26480,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -26766,8 +26766,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26875,7 +26875,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -26884,7 +26884,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -26903,7 +26903,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -27701,7 +27701,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -27720,7 +27720,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">
@@ -28008,7 +28008,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28116,7 +28116,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2644573</v>
+        <v>2993253</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>4</v>
@@ -28125,7 +28125,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
@@ -28144,7 +28144,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <v>174</v>
+        <v>216.5</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
@@ -28942,7 +28942,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="19">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="7">
@@ -28961,7 +28961,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="7">

--- a/SWS.xlsx
+++ b/SWS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\Nouveau dossier (6)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEB4D13-2FB5-4A95-9108-1514C6ED4F7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D0DAE7-450B-4046-893B-47DDBA750968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -291,9 +291,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -918,7 +918,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -934,14 +934,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -952,11 +952,11 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -989,7 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4235,8 +4235,8 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5220,7 +5220,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="14">
         <f>+'1'!E52+'2'!E52+'3'!E52+'4'!E52+'5'!E52+'6'!E52+'7'!E52+'8'!E52+'9'!E52+'10'!E52+'11'!E52+'12'!E52+'13'!E52+'14'!E52+'15'!E52+'16'!E52+'17'!E52+'18'!E52+'19'!E52</f>
@@ -5700,8 +5700,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6578,7 +6578,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -6938,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7816,7 +7816,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -8176,8 +8176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9054,7 +9054,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -9417,8 +9417,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10293,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -10652,8 +10652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11530,7 +11530,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -11890,8 +11890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12768,7 +12768,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -13128,8 +13128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14006,7 +14006,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -14366,8 +14366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15244,7 +15244,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -15604,8 +15604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16482,7 +16482,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -16842,8 +16842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17720,7 +17720,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -18083,8 +18083,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18961,7 +18961,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -19321,8 +19321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20196,7 +20196,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -20559,8 +20559,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21437,7 +21437,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -21800,8 +21800,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22678,7 +22678,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -23041,8 +23041,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23919,7 +23919,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -24282,8 +24282,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25160,7 +25160,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -25523,8 +25523,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26404,7 +26404,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -26766,8 +26766,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27644,7 +27644,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">
@@ -28007,8 +28007,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28885,7 +28885,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="7">

--- a/SWS.xlsx
+++ b/SWS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\Downloads\Nouveau dossier (6)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\Nouveau dossier (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D0DAE7-450B-4046-893B-47DDBA750968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0557FDDA-74B6-4B90-94EE-9C46707A62D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON DE PREPARATION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="78">
   <si>
     <t>Code IDH</t>
   </si>
@@ -208,16 +208,10 @@
     <t>BACHDJERAH HUSSEIN DEY EL MAGHARIA BOUROUBA</t>
   </si>
   <si>
-    <t>Le Chat Reg 2,5L FRESCO</t>
-  </si>
-  <si>
     <t>DEBAGH OUSSAMA</t>
   </si>
   <si>
     <t>SEBAIHI SIDALI</t>
-  </si>
-  <si>
-    <t>Le Chat HS 300 gr</t>
   </si>
   <si>
     <t>2970482</t>
@@ -291,9 +285,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -918,7 +912,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -934,14 +928,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -952,11 +946,11 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -989,7 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4235,8 +4229,8 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4444,7 +4438,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -4576,7 +4570,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -4598,7 +4592,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -4994,7 +4988,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -5016,7 +5010,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -5038,7 +5032,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -5060,7 +5054,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -5082,7 +5076,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -5104,7 +5098,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -5126,7 +5120,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -5148,7 +5142,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -5170,7 +5164,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -5192,7 +5186,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -5214,7 +5208,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -5236,7 +5230,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -5258,7 +5252,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -5280,7 +5274,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -5302,7 +5296,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -5324,7 +5318,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -5346,7 +5340,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -5392,10 +5386,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20">
@@ -5443,11 +5437,11 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20">
@@ -5494,11 +5488,11 @@
       </c>
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D70" s="20">
         <f>+'12'!D70+'5'!D70++'8'!D70+'2'!D70+'7'!D70+'6'!D70+'4'!D70+'9'!D70+'1'!D70+'10'!D70+'3'!D70+'11'!D70+'13'!D70+'14'!D70+'15'!D70+'16'!D70+'17'!D70+'18'!D70+'19'!D70</f>
@@ -5583,7 +5577,7 @@
     <row r="77" spans="1:7" s="1" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="78" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B78" s="52"/>
       <c r="C78" s="37"/>
@@ -5605,7 +5599,7 @@
     </row>
     <row r="80" spans="1:7" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80" s="52"/>
       <c r="C80" s="42"/>
@@ -5701,7 +5695,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5907,7 +5901,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -6021,7 +6015,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -6040,7 +6034,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -6382,7 +6376,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -6401,7 +6395,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -6420,7 +6414,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -6439,7 +6433,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -6458,7 +6452,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -6477,7 +6471,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -6496,7 +6490,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -6515,7 +6509,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -6534,7 +6528,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -6553,7 +6547,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -6572,7 +6566,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -6591,7 +6585,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -6610,7 +6604,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -6629,7 +6623,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -6648,7 +6642,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -6667,7 +6661,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -6686,7 +6680,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -6729,10 +6723,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -6768,11 +6762,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -6807,11 +6801,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -6939,7 +6933,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7145,7 +7139,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -7259,7 +7253,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -7278,7 +7272,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -7620,7 +7614,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -7639,7 +7633,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -7658,7 +7652,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -7677,7 +7671,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -7696,7 +7690,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -7715,7 +7709,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -7734,7 +7728,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -7753,7 +7747,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -7772,7 +7766,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -7791,7 +7785,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -7810,7 +7804,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -7829,7 +7823,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -7848,7 +7842,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -7867,7 +7861,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -7886,7 +7880,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -7905,7 +7899,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -7924,7 +7918,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -7967,10 +7961,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -8006,11 +8000,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -8045,11 +8039,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -8177,7 +8171,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8383,7 +8377,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -8497,7 +8491,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -8516,7 +8510,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -8858,7 +8852,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -8877,7 +8871,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -8896,7 +8890,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -8915,7 +8909,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -8934,7 +8928,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -8953,7 +8947,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -8972,7 +8966,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -8991,7 +8985,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -9010,7 +9004,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -9029,7 +9023,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -9048,7 +9042,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -9067,7 +9061,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -9086,7 +9080,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -9105,7 +9099,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -9124,7 +9118,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -9143,7 +9137,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -9162,7 +9156,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -9205,10 +9199,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -9244,11 +9238,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -9283,11 +9277,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -9418,7 +9412,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9622,7 +9616,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -9736,7 +9730,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -9755,7 +9749,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -10097,7 +10091,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -10116,7 +10110,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -10135,7 +10129,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -10154,7 +10148,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -10173,7 +10167,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -10192,7 +10186,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -10211,7 +10205,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -10230,7 +10224,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -10249,7 +10243,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -10268,7 +10262,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -10287,7 +10281,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -10306,7 +10300,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -10325,7 +10319,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -10344,7 +10338,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -10363,7 +10357,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -10382,7 +10376,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -10401,7 +10395,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -10444,10 +10438,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -10483,11 +10477,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -10522,11 +10516,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -10653,7 +10647,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10859,7 +10853,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -10973,7 +10967,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -10992,7 +10986,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -11334,7 +11328,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -11353,7 +11347,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -11372,7 +11366,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -11391,7 +11385,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -11410,7 +11404,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -11429,7 +11423,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -11448,7 +11442,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -11467,7 +11461,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -11486,7 +11480,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -11505,7 +11499,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -11524,7 +11518,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -11543,7 +11537,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -11562,7 +11556,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -11581,7 +11575,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -11600,7 +11594,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -11619,7 +11613,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -11638,7 +11632,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -11681,10 +11675,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -11720,11 +11714,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -11759,11 +11753,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -11891,7 +11885,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12097,7 +12091,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -12211,7 +12205,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -12230,7 +12224,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -12572,7 +12566,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -12591,7 +12585,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -12610,7 +12604,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -12629,7 +12623,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -12648,7 +12642,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -12667,7 +12661,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -12686,7 +12680,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -12705,7 +12699,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -12724,7 +12718,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -12743,7 +12737,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -12762,7 +12756,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -12781,7 +12775,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -12800,7 +12794,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -12819,7 +12813,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -12838,7 +12832,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -12857,7 +12851,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -12876,7 +12870,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -12919,10 +12913,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -12958,11 +12952,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -12997,11 +12991,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -13129,7 +13123,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13335,7 +13329,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -13449,7 +13443,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -13468,7 +13462,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -13810,7 +13804,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -13829,7 +13823,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -13848,7 +13842,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -13867,7 +13861,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -13886,7 +13880,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -13905,7 +13899,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -13924,7 +13918,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -13943,7 +13937,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -13962,7 +13956,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -13981,7 +13975,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -14000,7 +13994,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -14019,7 +14013,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -14038,7 +14032,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -14057,7 +14051,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -14076,7 +14070,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -14095,7 +14089,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -14114,7 +14108,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -14157,10 +14151,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -14196,11 +14190,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -14235,11 +14229,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -14367,7 +14361,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14573,7 +14567,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -14687,7 +14681,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -14706,7 +14700,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -15048,7 +15042,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -15067,7 +15061,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -15086,7 +15080,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -15105,7 +15099,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -15124,7 +15118,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -15143,7 +15137,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -15162,7 +15156,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -15181,7 +15175,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -15200,7 +15194,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -15219,7 +15213,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -15238,7 +15232,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -15257,7 +15251,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -15276,7 +15270,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -15295,7 +15289,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -15314,7 +15308,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -15333,7 +15327,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -15352,7 +15346,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -15395,10 +15389,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -15434,11 +15428,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -15473,11 +15467,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -15605,7 +15599,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15811,7 +15805,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -15925,7 +15919,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -15944,7 +15938,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -16286,7 +16280,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -16305,7 +16299,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -16324,7 +16318,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -16343,7 +16337,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -16362,7 +16356,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -16381,7 +16375,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -16400,7 +16394,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -16419,7 +16413,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -16438,7 +16432,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -16457,7 +16451,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -16476,7 +16470,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -16495,7 +16489,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -16514,7 +16508,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -16533,7 +16527,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -16552,7 +16546,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -16571,7 +16565,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -16590,7 +16584,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -16633,10 +16627,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -16672,11 +16666,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -16711,11 +16705,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -16843,7 +16837,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17049,7 +17043,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -17163,7 +17157,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -17182,7 +17176,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -17524,7 +17518,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -17543,7 +17537,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -17562,7 +17556,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -17581,7 +17575,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -17600,7 +17594,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -17619,7 +17613,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -17638,7 +17632,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -17657,7 +17651,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -17676,7 +17670,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -17695,7 +17689,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -17714,7 +17708,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -17733,7 +17727,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -17752,7 +17746,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -17771,7 +17765,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -17790,7 +17784,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -17809,7 +17803,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -17828,7 +17822,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -17871,10 +17865,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -17910,11 +17904,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -17949,11 +17943,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -18084,7 +18078,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18290,7 +18284,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -18404,7 +18398,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -18423,7 +18417,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -18765,7 +18759,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -18784,7 +18778,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -18803,7 +18797,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -18822,7 +18816,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -18841,7 +18835,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -18860,7 +18854,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -18879,7 +18873,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -18898,7 +18892,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -18917,7 +18911,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -18936,7 +18930,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -18955,7 +18949,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -18974,7 +18968,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -18993,7 +18987,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -19012,7 +19006,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -19031,7 +19025,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -19050,7 +19044,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -19069,7 +19063,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -19112,10 +19106,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -19151,11 +19145,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -19190,11 +19184,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -19322,7 +19316,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19525,7 +19519,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -19639,7 +19633,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -19658,7 +19652,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -20000,7 +19994,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -20019,7 +20013,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -20038,7 +20032,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -20057,7 +20051,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -20076,7 +20070,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -20095,7 +20089,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -20114,7 +20108,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -20133,7 +20127,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -20152,7 +20146,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -20171,7 +20165,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -20190,7 +20184,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -20209,7 +20203,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -20228,7 +20222,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -20247,7 +20241,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -20266,7 +20260,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -20285,7 +20279,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -20304,7 +20298,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -20347,10 +20341,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -20386,11 +20380,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -20425,11 +20419,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -20560,7 +20554,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20766,7 +20760,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -20880,7 +20874,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -20899,7 +20893,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -21241,7 +21235,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -21260,7 +21254,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -21279,7 +21273,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -21298,7 +21292,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -21317,7 +21311,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -21336,7 +21330,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -21355,7 +21349,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -21374,7 +21368,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -21393,7 +21387,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -21412,7 +21406,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -21431,7 +21425,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -21450,7 +21444,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -21469,7 +21463,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -21488,7 +21482,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -21507,7 +21501,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -21526,7 +21520,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -21545,7 +21539,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -21588,10 +21582,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -21627,11 +21621,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -21666,11 +21660,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -21801,7 +21795,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22007,7 +22001,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -22121,7 +22115,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -22140,7 +22134,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -22482,7 +22476,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -22501,7 +22495,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -22520,7 +22514,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -22539,7 +22533,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -22558,7 +22552,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -22577,7 +22571,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -22596,7 +22590,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -22615,7 +22609,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -22634,7 +22628,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -22653,7 +22647,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -22672,7 +22666,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -22691,7 +22685,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -22710,7 +22704,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -22729,7 +22723,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -22748,7 +22742,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -22767,7 +22761,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -22786,7 +22780,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -22829,10 +22823,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -22868,11 +22862,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -22907,11 +22901,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -23042,7 +23036,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23248,7 +23242,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -23362,7 +23356,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -23381,7 +23375,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -23723,7 +23717,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -23742,7 +23736,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -23761,7 +23755,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -23780,7 +23774,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -23799,7 +23793,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -23818,7 +23812,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -23837,7 +23831,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -23856,7 +23850,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -23875,7 +23869,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -23894,7 +23888,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -23913,7 +23907,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -23932,7 +23926,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -23951,7 +23945,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -23970,7 +23964,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -23989,7 +23983,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -24008,7 +24002,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -24027,7 +24021,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -24070,10 +24064,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -24109,11 +24103,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -24148,11 +24142,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -24283,7 +24277,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24489,7 +24483,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -24603,7 +24597,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -24622,7 +24616,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -24964,7 +24958,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -24983,7 +24977,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -25002,7 +24996,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -25021,7 +25015,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -25040,7 +25034,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -25059,7 +25053,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -25078,7 +25072,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -25097,7 +25091,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -25116,7 +25110,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -25135,7 +25129,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -25154,7 +25148,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -25173,7 +25167,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -25192,7 +25186,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -25211,7 +25205,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -25230,7 +25224,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -25249,7 +25243,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -25268,7 +25262,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -25311,10 +25305,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -25350,11 +25344,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -25389,11 +25383,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -25524,7 +25518,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25733,7 +25727,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -25847,7 +25841,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -25866,7 +25860,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -26208,7 +26202,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -26227,7 +26221,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -26246,7 +26240,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -26265,7 +26259,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -26284,7 +26278,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -26303,7 +26297,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -26322,7 +26316,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -26341,7 +26335,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -26360,7 +26354,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -26379,7 +26373,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -26398,7 +26392,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -26417,7 +26411,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -26436,7 +26430,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -26455,7 +26449,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -26474,7 +26468,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -26493,7 +26487,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -26512,7 +26506,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -26555,10 +26549,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -26594,11 +26588,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -26633,11 +26627,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -26767,7 +26761,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26973,7 +26967,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -27087,7 +27081,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -27106,7 +27100,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -27448,7 +27442,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -27467,7 +27461,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -27486,7 +27480,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -27505,7 +27499,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -27524,7 +27518,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -27543,7 +27537,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -27562,7 +27556,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -27581,7 +27575,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -27600,7 +27594,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -27619,7 +27613,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -27638,7 +27632,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -27657,7 +27651,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -27676,7 +27670,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -27695,7 +27689,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -27714,7 +27708,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -27733,7 +27727,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -27752,7 +27746,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -27795,10 +27789,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -27834,11 +27828,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -27873,11 +27867,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
@@ -28008,7 +28002,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28214,7 +28208,7 @@
         <v>2766729</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -28328,7 +28322,7 @@
         <v>2820870</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13">
         <v>12</v>
@@ -28347,7 +28341,7 @@
         <v>2821686</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="13">
         <v>25</v>
@@ -28689,7 +28683,7 @@
         <v>2922764</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23">
         <v>4</v>
@@ -28708,7 +28702,7 @@
         <v>2922795</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23">
         <v>10</v>
@@ -28727,7 +28721,7 @@
         <v>2940803</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="32">
         <v>10</v>
@@ -28746,7 +28740,7 @@
         <v>2940804</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="32">
         <v>3</v>
@@ -28765,7 +28759,7 @@
         <v>2943549</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="32">
         <v>12</v>
@@ -28784,7 +28778,7 @@
         <v>2951994</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="32">
         <v>4</v>
@@ -28803,7 +28797,7 @@
         <v>2952074</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="32">
         <v>4</v>
@@ -28822,7 +28816,7 @@
         <v>2952081</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="32">
         <v>4</v>
@@ -28841,7 +28835,7 @@
         <v>2952089</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="32">
         <v>10</v>
@@ -28860,7 +28854,7 @@
         <v>2952090</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="32">
         <v>10</v>
@@ -28879,7 +28873,7 @@
         <v>2952095</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="32">
         <v>3</v>
@@ -28898,7 +28892,7 @@
         <v>2958928</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>4</v>
@@ -28917,7 +28911,7 @@
         <v>2958931</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="32">
         <v>10</v>
@@ -28936,7 +28930,7 @@
         <v>2958932</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C55" s="32">
         <v>25</v>
@@ -28955,7 +28949,7 @@
         <v>2958933</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="32">
         <v>12</v>
@@ -28974,7 +28968,7 @@
         <v>2970224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="32">
         <v>12</v>
@@ -28993,7 +28987,7 @@
         <v>2970482</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="32">
         <v>12</v>
@@ -29036,10 +29030,10 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="20"/>
@@ -29075,11 +29069,11 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>2830113</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>57</v>
+      <c r="A66" s="31">
+        <v>2958932</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="20"/>
@@ -29114,11 +29108,11 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="24">
-        <v>2922764</v>
+      <c r="A70" s="31">
+        <v>2952074</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="20"/>
